--- a/files/formato_carga_pnsc.xlsx
+++ b/files/formato_carga_pnsc.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Documents\web projects\react\portal_semillero_remix_1\back\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Documents\web projects\react\portal_semillero_remix_1\zexcels_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6011B911-89E4-422F-8965-9FA4EAEA6DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{527116C8-03A7-4CE0-8FE2-E0BB759AE66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{793BAB9F-22C4-4A0A-A253-B6C6CE488FE4}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Semillero Escuela" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructivo" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Semillero Escuela'!$A$10:$N$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +39,312 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+  <si>
+    <t>6.Edad</t>
+  </si>
+  <si>
+    <t>7.Sexo (Masculino o Femenino)</t>
+  </si>
+  <si>
+    <t>8.Grado que cursa</t>
+  </si>
+  <si>
+    <t>7mo</t>
+  </si>
+  <si>
+    <t>1ro</t>
+  </si>
+  <si>
+    <t>2do</t>
+  </si>
+  <si>
+    <t>3ro</t>
+  </si>
+  <si>
+    <t>4to</t>
+  </si>
+  <si>
+    <t>5to</t>
+  </si>
+  <si>
+    <t>6to</t>
+  </si>
+  <si>
+    <t>8vo</t>
+  </si>
+  <si>
+    <t>9no</t>
+  </si>
+  <si>
+    <t>Preescolar</t>
+  </si>
+  <si>
+    <t>INSTRUCTIVO</t>
+  </si>
+  <si>
+    <t>1.  N°: Coloque el número correlativo.</t>
+  </si>
+  <si>
+    <t>2.  Nombre de la Institución: Escriba el nombre de la institución educativa.</t>
+  </si>
+  <si>
+    <t>3.  Nombres: Escriba los nombres del estudiante.</t>
+  </si>
+  <si>
+    <t>4. Apellidos: Escriba los apellidos del estudiante.</t>
+  </si>
+  <si>
+    <t>5. Cédula de Identidad (si aplica): coloque el número de cedula de identidad del estudiante, en caso que el estudiante no posee cedula coloque la cedula escolar o deje el espacio en blanco.</t>
+  </si>
+  <si>
+    <t>6. Edad: Escriba en número la edad del estudiante.</t>
+  </si>
+  <si>
+    <t>7. Sexo (Masculino o Femenino): coloque la letra M para masculino y la Letra F para  femenino.</t>
+  </si>
+  <si>
+    <t>8. Grado que cursa: Escriba en número el grado que cursa el estudiante.</t>
+  </si>
+  <si>
+    <t>9.  Actividad realizada: Coloque  el nombre de la actividad realizada.</t>
+  </si>
+  <si>
+    <t>10. Fecha en que fue realizada la actividad: coloque el día, mes y año en el que se realiza la actividad.</t>
+  </si>
+  <si>
+    <t>13.Apellidos del encargado de la actividad realizada por el Ente: Escriba  los apellidos del responsable de semillero científico o plan de masificación.</t>
+  </si>
+  <si>
+    <t>14. Nombres del encargado de la actividad realizada por el Ente: Escriba  los nombres del responsable de semillero científico o plan de masificación.</t>
+  </si>
+  <si>
+    <t>15. Cédula de Identidad encargado de la actividad realizada por el Ente: Coloque el número de cedula del responsable de semillero científico o plan de masificación.</t>
+  </si>
+  <si>
+    <t>16. Cargo dentro del Centro encargado de la actividad realizada por el Ente: Escriba el nombre del cargo que  ocupa dentro del ente. Ejemplo investigador, administrador entre otros.</t>
+  </si>
+  <si>
+    <t>17. Teléfono celular del encargado de la actividad realizada por el Ente: Coloque el número de teléfono celular.</t>
+  </si>
+  <si>
+    <t>18. Teléfono local encargado de la actividad realizada por el Ente: Coloque el número de teléfono local.</t>
+  </si>
+  <si>
+    <r>
+      <t>19. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Email encargado de la actividad realizada por el Ente: Escriba el email del responsable de semillero científico o plan de masificación.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Profesión encargado de la actividad realizada por el Ente: Escriba la profesión del responsable de semillero científico o plan de masificación.</t>
+    </r>
+  </si>
+  <si>
+    <t>OBSERVACION: UTILIZAR LETRAS MAYUSCULAS Y MINUSCULAS CUANDO LO REQUIERA EJEMPLO: NOMBRE APELLIDO: Carlos Eduardo Ruiz Peña</t>
+  </si>
+  <si>
+    <t>11. Lugar de ocurrencia de la actividad: Escriba  el nombre del lugar donde se realiza la actividad.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12. Ente o institución encargada de la actividad: Escriba el nombre  de la institución responsable de ejecutar la actividad por ejemplo: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Instituto de Estudios Avanzados (IDEA)</t>
+    </r>
+  </si>
+  <si>
+    <t>Entes</t>
+  </si>
+  <si>
+    <t>ACAV</t>
+  </si>
+  <si>
+    <t>MOVILNET</t>
+  </si>
+  <si>
+    <t>IPOSTEL</t>
+  </si>
+  <si>
+    <t>CANAIMA</t>
+  </si>
+  <si>
+    <t>CIDA</t>
+  </si>
+  <si>
+    <t>Docente</t>
+  </si>
+  <si>
+    <t>CONCIENCIA TV</t>
+  </si>
+  <si>
+    <t>TGC</t>
+  </si>
+  <si>
+    <t>TELECOM</t>
+  </si>
+  <si>
+    <t>SUSCERTE</t>
+  </si>
+  <si>
+    <t>CONATI</t>
+  </si>
+  <si>
+    <t>CNTI</t>
+  </si>
+  <si>
+    <t>CENDITEL</t>
+  </si>
+  <si>
+    <t>CENDIT</t>
+  </si>
+  <si>
+    <t>CANTV</t>
+  </si>
+  <si>
+    <t>ABAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVIC </t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>FIIIDT</t>
+  </si>
+  <si>
+    <t>CNTQ</t>
+  </si>
+  <si>
+    <t>CODECYT</t>
+  </si>
+  <si>
+    <t>CIEPE</t>
+  </si>
+  <si>
+    <t>INZIT</t>
+  </si>
+  <si>
+    <t>INFOCENTRO</t>
+  </si>
+  <si>
+    <t>FUNDACITE</t>
+  </si>
+  <si>
+    <t>C. Div. 4to Año</t>
+  </si>
+  <si>
+    <t>C. Div. 5to Año</t>
+  </si>
+  <si>
+    <t>C. Téc. 4to Año</t>
+  </si>
+  <si>
+    <t>C. Téc. 5to Año</t>
+  </si>
+  <si>
+    <t>C. Téc. 6to Año</t>
+  </si>
+  <si>
+    <t>Universitario</t>
+  </si>
+  <si>
+    <t>Nombre de Escuela</t>
+  </si>
+  <si>
+    <t>Cédula</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Edad (número)</t>
+  </si>
+  <si>
+    <t>Genero(Femenino o Masculino)</t>
+  </si>
+  <si>
+    <t>Grado Academico</t>
+  </si>
+  <si>
+    <t>Talla de Franela</t>
+  </si>
+  <si>
+    <t>Cedula del Representante</t>
+  </si>
+  <si>
+    <t>Nombre del Representante</t>
+  </si>
+  <si>
+    <t>Apellido del Representante</t>
+  </si>
+  <si>
+    <t>Edad del Representante</t>
+  </si>
+  <si>
+    <t>Parentesco</t>
+  </si>
+  <si>
+    <t>Teléfono del Representante</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
   <si>
     <t>school</t>
   </si>
@@ -45,6 +355,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>lastName</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
@@ -54,6 +367,9 @@
     <t>grade</t>
   </si>
   <si>
+    <t>shirtSize</t>
+  </si>
+  <si>
     <t>representativeCI</t>
   </si>
   <si>
@@ -70,20 +386,131 @@
   </si>
   <si>
     <t>representativePhone</t>
-  </si>
-  <si>
-    <t>shirtSize</t>
-  </si>
-  <si>
-    <t>lastName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+  </numFmts>
+  <fonts count="18">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="55"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="22.55"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,15 +525,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF6FA8DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF6FA8DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -114,19 +583,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="8">
+    <cellStyle name="Hipervínculo 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hipervínculo 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,6 +766,196 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3352800" cy="1402080"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="26670"/>
+          <a:ext cx="3352800" cy="1402080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1170016</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1237522</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>250075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21449607" y="234662"/>
+          <a:ext cx="2851923" cy="1050694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2124075" cy="828675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="209550"/>
+          <a:ext cx="2124075" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5372100" y="238124"/>
+          <a:ext cx="2028825" cy="685801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -158,7 +975,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -170,7 +987,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -187,9 +1004,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -217,31 +1034,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -269,23 +1069,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,129 +1220,2029 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AE494A-DAED-4594-9C6C-60F5A7BB09FF}">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="12" width="20.33203125" customWidth="1"/>
-    <col min="13" max="14" width="18.77734375" customWidth="1"/>
+    <col min="1" max="4" width="30.6640625" style="17"/>
+    <col min="5" max="5" width="23" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="18" style="17" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" style="17" customWidth="1"/>
+    <col min="15" max="16384" width="30.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:14" s="24" customFormat="1"/>
+    <row r="2" spans="1:14" s="24" customFormat="1"/>
+    <row r="3" spans="1:14" s="24" customFormat="1"/>
+    <row r="4" spans="1:14" s="24" customFormat="1"/>
+    <row r="5" spans="1:14" s="24" customFormat="1">
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" s="24" customFormat="1">
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:14" s="24" customFormat="1" ht="21">
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:14" s="24" customFormat="1"/>
+    <row r="9" spans="1:14" s="24" customFormat="1"/>
+    <row r="10" spans="1:14" s="31" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="A10" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" hidden="1">
+      <c r="A11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="20"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="20"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="20"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="20"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="20"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="20"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="20"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="20"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="KfP8PA9/uszXOXqom1vLt3RLDvM3hIBfmndpDXcSG0oQ9UZOsSmYU8jfq+IbqwBZB0BUu7Z9rL6ueAWDXzux9w==" saltValue="nknLKjxKhK2UyN/H8TFBkA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="10">
+    <dataValidation type="whole" operator="notBetween" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No colocar (V) solo los numeros" error="V" promptTitle="Cédula" prompt="coloque el número de cedula de identidad del estudiante, en caso que el estudiante no posee cedula coloque la cedula escolar o deje el espacio en blanco" sqref="B12:B36" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombres" prompt="Escriba los nombres del estudiante" sqref="C12:C36" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Apellidos" prompt="Escriba los apellidos del estudiante" sqref="D12:D36" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre de la escuela" prompt="Colocar el nombre de la institución donde pertenece el estudiante" sqref="A12:B36" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation type="whole" operator="notBetween" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No colocar (V) solo los números" error="V" promptTitle="Cédula" prompt="Coloque el número de cedula de identidad." sqref="I12:I36" xr:uid="{00000000-0002-0000-0000-000010000000}">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre del representante" prompt="Escriba los nombres del estudiante" sqref="J12:J36" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Apellidos del representante" prompt="Escriba los apellidos del estudiante" sqref="K12:K36" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12:L36" xr:uid="{00000000-0002-0000-0000-000013000000}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Edad" error="Coloque la edad del estudiante en número " promptTitle="Edad" prompt="Coloque la edad del estudiante en número " sqref="E12:E36" xr:uid="{00000000-0002-0000-0000-000014000000}">
+      <formula1>1</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="talla de camisa" error="Colocar talla de camisa en numero" promptTitle="talla de camisa" prompt="Colocar talla de camisa en numero" sqref="H12:I36" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000016000000}">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$3:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F37:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000017000000}">
+          <x14:formula1>
+            <xm:f>Hoja2!$F$3:$F$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>G37:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grado que cursan" prompt="Ingresar los grados abreviados de los estudiantes: ( Preescolar, 1ro, 2do, 3ro, 4to, 5to, 6to, 7mo, 8vo, 9no, C. Div, C. Div, Universitario)" xr:uid="{00000000-0002-0000-0000-000018000000}">
+          <x14:formula1>
+            <xm:f>Hoja2!$F$3:$F$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>G12:G36</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sexo" prompt="Seleccione Masculino o Femenino segun corresponda" xr:uid="{00000000-0002-0000-0000-000019000000}">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$3:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F12:F36</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A4:A30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" s="1" customFormat="1"/>
+    <row r="5" spans="1:1" s="1" customFormat="1"/>
+    <row r="6" spans="1:1" s="1" customFormat="1"/>
+    <row r="8" spans="1:1" ht="18">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+    </row>
+    <row r="9" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="51.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="49.5" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="54" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="52.5" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A2:K348"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.399999999999999">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.399999999999999">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.399999999999999">
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.399999999999999">
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.399999999999999">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.399999999999999">
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.399999999999999">
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.399999999999999">
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.399999999999999">
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6">
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="1">
+        <v>11</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.399999999999999">
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="1">
+        <v>12</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6">
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="1">
+        <v>13</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6">
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="1">
+        <v>14</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" ht="15.6">
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="1">
+        <v>15</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" ht="15.6">
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="1">
+        <v>16</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" ht="15.6">
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="1">
+        <v>17</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" ht="15.6">
+      <c r="I20" s="1">
+        <v>18</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" ht="15.6">
+      <c r="I21" s="1">
+        <v>19</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" ht="15.6">
+      <c r="I22" s="1">
+        <v>20</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" ht="34.799999999999997">
+      <c r="I23" s="1">
+        <v>21</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="17.399999999999999">
+      <c r="I24" s="1">
+        <v>22</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" ht="15.6">
+      <c r="I25" s="1">
+        <v>23</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" ht="15.6">
+      <c r="I26" s="1">
+        <v>24</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11">
+      <c r="I27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11">
+      <c r="I28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11">
+      <c r="I29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11">
+      <c r="I30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11">
+      <c r="I31" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11">
+      <c r="I32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="9:9">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="9:9">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="9:9">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="9:9">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="9:9">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="9:9">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="9:9">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="9:9">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="9:9">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="9:9">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="9:9">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="9:9">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="9:9">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="9:9">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="9:9">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="9:9">
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="9:9">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="9:9">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="9:9">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="9:9">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="9:9">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="9:9">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="9:9">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="9:9">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="9:9">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="9:9">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="9:9">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="9:9">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="9:9">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="9:9">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="9:9">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="9:9">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="9:9">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="9:9">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="9:9">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="9:9">
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="9:9">
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="9:9">
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="9:9">
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="9:9">
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="9:9">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="9:9">
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="9:9">
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="9:9">
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="9:9">
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="9:9">
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="9:9">
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="9:9">
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="9:9">
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="9:9">
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="9:9">
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="9:9">
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="9:9">
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="9:9">
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="9:9">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="9:9">
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="9:9">
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="9:9">
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="9:9">
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="9:9">
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="9:9">
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="9:9">
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="9:9">
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="9:9">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="9:9">
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="9:9">
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="9:9">
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="9:9">
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="9:9">
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="9:9">
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="9:9">
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="9:9">
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="9:9">
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="9:9">
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="9:9">
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="9:9">
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="9:9">
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="9:9">
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="9:9">
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="9:9">
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="9:9">
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="9:9">
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="9:9">
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="9:9">
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="9:9">
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="9:9">
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="9:9">
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="9:9">
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="9:9">
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="9:9">
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="9:9">
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="9:9">
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="9:9">
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="9:9">
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="9:9">
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="9:9">
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="9:9">
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="9:9">
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="9:9">
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="9:9">
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="9:9">
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="9:9">
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="9:9">
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="9:9">
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="9:9">
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="9:9">
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="9:9">
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="9:9">
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="9:9">
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="9:9">
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="9:9">
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="9:9">
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="9:9">
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="9:9">
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="9:9">
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="9:9">
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="9:9">
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="9:9">
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="9:9">
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="9:9">
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="9:9">
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="9:9">
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="9:9">
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="9:9">
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="9:9">
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="9:9">
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="9:9">
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="9:9">
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="9:9">
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="9:9">
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="9:9">
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="9:9">
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="9:9">
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="9:9">
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="9:9">
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="9:9">
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="9:9">
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="9:9">
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="9:9">
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="9:9">
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="9:9">
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="9:9">
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="9:9">
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="9:9">
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="9:9">
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="9:9">
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="9:9">
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="9:9">
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="9:9">
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="9:9">
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="9:9">
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="9:9">
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="9:9">
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="9:9">
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="9:9">
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="9:9">
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="9:9">
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="9:9">
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="9:9">
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="9:9">
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="9:9">
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="9:9">
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="9:9">
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="9:9">
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="9:9">
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="9:9">
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="9:9">
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="9:9">
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="9:9">
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="9:9">
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="9:9">
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="9:9">
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="9:9">
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="9:9">
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="9:9">
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" spans="9:9">
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="9:9">
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" spans="9:9">
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="9:9">
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" spans="9:9">
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" spans="9:9">
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="9:9">
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" spans="9:9">
+      <c r="I253" s="1"/>
+    </row>
+    <row r="254" spans="9:9">
+      <c r="I254" s="1"/>
+    </row>
+    <row r="255" spans="9:9">
+      <c r="I255" s="1"/>
+    </row>
+    <row r="256" spans="9:9">
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="9:9">
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="9:9">
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="9:9">
+      <c r="I259" s="1"/>
+    </row>
+    <row r="260" spans="9:9">
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" spans="9:9">
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" spans="9:9">
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" spans="9:9">
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="9:9">
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" spans="9:9">
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="9:9">
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" spans="9:9">
+      <c r="I267" s="1"/>
+    </row>
+    <row r="268" spans="9:9">
+      <c r="I268" s="1"/>
+    </row>
+    <row r="269" spans="9:9">
+      <c r="I269" s="1"/>
+    </row>
+    <row r="270" spans="9:9">
+      <c r="I270" s="1"/>
+    </row>
+    <row r="271" spans="9:9">
+      <c r="I271" s="1"/>
+    </row>
+    <row r="272" spans="9:9">
+      <c r="I272" s="1"/>
+    </row>
+    <row r="273" spans="9:9">
+      <c r="I273" s="1"/>
+    </row>
+    <row r="274" spans="9:9">
+      <c r="I274" s="1"/>
+    </row>
+    <row r="275" spans="9:9">
+      <c r="I275" s="1"/>
+    </row>
+    <row r="276" spans="9:9">
+      <c r="I276" s="1"/>
+    </row>
+    <row r="277" spans="9:9">
+      <c r="I277" s="1"/>
+    </row>
+    <row r="278" spans="9:9">
+      <c r="I278" s="1"/>
+    </row>
+    <row r="279" spans="9:9">
+      <c r="I279" s="1"/>
+    </row>
+    <row r="280" spans="9:9">
+      <c r="I280" s="1"/>
+    </row>
+    <row r="281" spans="9:9">
+      <c r="I281" s="1"/>
+    </row>
+    <row r="282" spans="9:9">
+      <c r="I282" s="1"/>
+    </row>
+    <row r="283" spans="9:9">
+      <c r="I283" s="1"/>
+    </row>
+    <row r="284" spans="9:9">
+      <c r="I284" s="1"/>
+    </row>
+    <row r="285" spans="9:9">
+      <c r="I285" s="1"/>
+    </row>
+    <row r="286" spans="9:9">
+      <c r="I286" s="1"/>
+    </row>
+    <row r="287" spans="9:9">
+      <c r="I287" s="1"/>
+    </row>
+    <row r="288" spans="9:9">
+      <c r="I288" s="1"/>
+    </row>
+    <row r="289" spans="9:9">
+      <c r="I289" s="1"/>
+    </row>
+    <row r="290" spans="9:9">
+      <c r="I290" s="1"/>
+    </row>
+    <row r="291" spans="9:9">
+      <c r="I291" s="1"/>
+    </row>
+    <row r="292" spans="9:9">
+      <c r="I292" s="1"/>
+    </row>
+    <row r="293" spans="9:9">
+      <c r="I293" s="1"/>
+    </row>
+    <row r="294" spans="9:9">
+      <c r="I294" s="1"/>
+    </row>
+    <row r="295" spans="9:9">
+      <c r="I295" s="1"/>
+    </row>
+    <row r="296" spans="9:9">
+      <c r="I296" s="1"/>
+    </row>
+    <row r="297" spans="9:9">
+      <c r="I297" s="1"/>
+    </row>
+    <row r="298" spans="9:9">
+      <c r="I298" s="1"/>
+    </row>
+    <row r="299" spans="9:9">
+      <c r="I299" s="1"/>
+    </row>
+    <row r="300" spans="9:9">
+      <c r="I300" s="1"/>
+    </row>
+    <row r="301" spans="9:9">
+      <c r="I301" s="1"/>
+    </row>
+    <row r="302" spans="9:9">
+      <c r="I302" s="1"/>
+    </row>
+    <row r="303" spans="9:9">
+      <c r="I303" s="1"/>
+    </row>
+    <row r="304" spans="9:9">
+      <c r="I304" s="1"/>
+    </row>
+    <row r="305" spans="9:9">
+      <c r="I305" s="1"/>
+    </row>
+    <row r="306" spans="9:9">
+      <c r="I306" s="1"/>
+    </row>
+    <row r="307" spans="9:9">
+      <c r="I307" s="1"/>
+    </row>
+    <row r="308" spans="9:9">
+      <c r="I308" s="1"/>
+    </row>
+    <row r="309" spans="9:9">
+      <c r="I309" s="1"/>
+    </row>
+    <row r="310" spans="9:9">
+      <c r="I310" s="1"/>
+    </row>
+    <row r="311" spans="9:9">
+      <c r="I311" s="1"/>
+    </row>
+    <row r="312" spans="9:9">
+      <c r="I312" s="1"/>
+    </row>
+    <row r="313" spans="9:9">
+      <c r="I313" s="1"/>
+    </row>
+    <row r="314" spans="9:9">
+      <c r="I314" s="1"/>
+    </row>
+    <row r="315" spans="9:9">
+      <c r="I315" s="1"/>
+    </row>
+    <row r="316" spans="9:9">
+      <c r="I316" s="1"/>
+    </row>
+    <row r="317" spans="9:9">
+      <c r="I317" s="1"/>
+    </row>
+    <row r="318" spans="9:9">
+      <c r="I318" s="1"/>
+    </row>
+    <row r="319" spans="9:9">
+      <c r="I319" s="1"/>
+    </row>
+    <row r="320" spans="9:9">
+      <c r="I320" s="1"/>
+    </row>
+    <row r="321" spans="9:9">
+      <c r="I321" s="1"/>
+    </row>
+    <row r="322" spans="9:9">
+      <c r="I322" s="1"/>
+    </row>
+    <row r="323" spans="9:9">
+      <c r="I323" s="1"/>
+    </row>
+    <row r="324" spans="9:9">
+      <c r="I324" s="1"/>
+    </row>
+    <row r="325" spans="9:9">
+      <c r="I325" s="1"/>
+    </row>
+    <row r="326" spans="9:9">
+      <c r="I326" s="1"/>
+    </row>
+    <row r="327" spans="9:9">
+      <c r="I327" s="1"/>
+    </row>
+    <row r="328" spans="9:9">
+      <c r="I328" s="1"/>
+    </row>
+    <row r="329" spans="9:9">
+      <c r="I329" s="1"/>
+    </row>
+    <row r="330" spans="9:9">
+      <c r="I330" s="1"/>
+    </row>
+    <row r="331" spans="9:9">
+      <c r="I331" s="1"/>
+    </row>
+    <row r="332" spans="9:9">
+      <c r="I332" s="1"/>
+    </row>
+    <row r="333" spans="9:9">
+      <c r="I333" s="1"/>
+    </row>
+    <row r="334" spans="9:9">
+      <c r="I334" s="1"/>
+    </row>
+    <row r="335" spans="9:9">
+      <c r="I335" s="1"/>
+    </row>
+    <row r="336" spans="9:9">
+      <c r="I336" s="1"/>
+    </row>
+    <row r="337" spans="9:9">
+      <c r="I337" s="1"/>
+    </row>
+    <row r="338" spans="9:9">
+      <c r="I338" s="1"/>
+    </row>
+    <row r="339" spans="9:9">
+      <c r="I339" s="1"/>
+    </row>
+    <row r="340" spans="9:9">
+      <c r="I340" s="1"/>
+    </row>
+    <row r="341" spans="9:9">
+      <c r="I341" s="1"/>
+    </row>
+    <row r="342" spans="9:9">
+      <c r="I342" s="1"/>
+    </row>
+    <row r="343" spans="9:9">
+      <c r="I343" s="1"/>
+    </row>
+    <row r="344" spans="9:9">
+      <c r="I344" s="1"/>
+    </row>
+    <row r="345" spans="9:9">
+      <c r="I345" s="1"/>
+    </row>
+    <row r="346" spans="9:9">
+      <c r="I346" s="1"/>
+    </row>
+    <row r="347" spans="9:9">
+      <c r="I347" s="1"/>
+    </row>
+    <row r="348" spans="9:9">
+      <c r="I348" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/formato_carga_pnsc.xlsx
+++ b/files/formato_carga_pnsc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Documents\web projects\react\portal_semillero_remix_1\zexcels_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{527116C8-03A7-4CE0-8FE2-E0BB759AE66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79420856-BC71-4EC5-8D28-CAAFDCE7DEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Semillero Escuela" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>6.Edad</t>
   </si>
@@ -298,48 +298,6 @@
     <t>Universitario</t>
   </si>
   <si>
-    <t>Nombre de Escuela</t>
-  </si>
-  <si>
-    <t>Cédula</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Edad (número)</t>
-  </si>
-  <si>
-    <t>Genero(Femenino o Masculino)</t>
-  </si>
-  <si>
-    <t>Grado Academico</t>
-  </si>
-  <si>
-    <t>Talla de Franela</t>
-  </si>
-  <si>
-    <t>Cedula del Representante</t>
-  </si>
-  <si>
-    <t>Nombre del Representante</t>
-  </si>
-  <si>
-    <t>Apellido del Representante</t>
-  </si>
-  <si>
-    <t>Edad del Representante</t>
-  </si>
-  <si>
-    <t>Parentesco</t>
-  </si>
-  <si>
-    <t>Teléfono del Representante</t>
-  </si>
-  <si>
     <t>Femenino</t>
   </si>
   <si>
@@ -386,6 +344,136 @@
   </si>
   <si>
     <t>representativePhone</t>
+  </si>
+  <si>
+    <t>RELACIÓN DE JORNADAS INSTITUCIONALES 2025</t>
+  </si>
+  <si>
+    <t>DATOS DE NIÑAS, NIÑOS, JOVENES Y PARTICIPANTES EN LAS ACTIVIDADES</t>
+  </si>
+  <si>
+    <r>
+      <t>DATOS DE REPRESENTANTES    (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EN CASO DE QUE LOS PARTICIPANTES DE LA ACTIVIDAD SEAN MENORES DE EDAD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>1.N°</t>
+  </si>
+  <si>
+    <t>Escuela</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Cédula de Identidad (si aplica)</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Sexo (Masculino o Femenino)</t>
+  </si>
+  <si>
+    <t>Grado que cursa</t>
+  </si>
+  <si>
+    <t>Talla de camisa (REVISAR)</t>
+  </si>
+  <si>
+    <t>Posee algún tipo de discapacidad, enfermedad, alergía o condición</t>
+  </si>
+  <si>
+    <t>Dirección de vivienda</t>
+  </si>
+  <si>
+    <t>Estado (Vivienda)</t>
+  </si>
+  <si>
+    <t>Municipio (Vivienda)</t>
+  </si>
+  <si>
+    <t>Parroquia (vivienda)</t>
+  </si>
+  <si>
+    <t>Teléfono celular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apellidos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cédula de Identidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edad </t>
+  </si>
+  <si>
+    <t>Parentesco representante</t>
+  </si>
+  <si>
+    <t>Teléfono celular representante</t>
+  </si>
+  <si>
+    <t>Teléfono laboral o alternativo representante</t>
+  </si>
+  <si>
+    <t>Email representante</t>
+  </si>
+  <si>
+    <t>Profesión y/o oficio representante</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>disability</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>state_aux</t>
+  </si>
+  <si>
+    <t>municipality_aux</t>
+  </si>
+  <si>
+    <t>parish_aux</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>representativePhone2</t>
+  </si>
+  <si>
+    <t>representativeEmail</t>
+  </si>
+  <si>
+    <t>representativeProfession</t>
   </si>
 </sst>
 </file>
@@ -395,7 +483,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,13 +501,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -510,22 +591,55 @@
       <name val="Arial1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,8 +688,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -614,112 +746,229 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -728,21 +977,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -810,51 +1128,42 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1170016</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61480</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1817314</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>93455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1237522</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>250075</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2076305</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 3">
+        <xdr:cNvPr id="5" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B59CBB8-78B9-4EE2-AC23-C9294D2EAD36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="21449607" y="234662"/>
-          <a:ext cx="2851923" cy="1050694"/>
+          <a:off x="43353934" y="93455"/>
+          <a:ext cx="2373541" cy="957644"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
         <a:ln w="9360">
           <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
@@ -1222,16 +1531,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="30.6640625" style="17"/>
+    <col min="1" max="1" width="6.6640625" style="17" customWidth="1"/>
+    <col min="2" max="4" width="30.6640625" style="17"/>
     <col min="5" max="5" width="23" style="17" customWidth="1"/>
     <col min="6" max="6" width="22.88671875" style="17" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" style="17" customWidth="1"/>
@@ -1245,534 +1554,903 @@
     <col min="15" max="16384" width="30.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1"/>
-    <row r="2" spans="1:14" s="24" customFormat="1"/>
-    <row r="3" spans="1:14" s="24" customFormat="1"/>
-    <row r="4" spans="1:14" s="24" customFormat="1"/>
-    <row r="5" spans="1:14" s="24" customFormat="1">
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:14" s="24" customFormat="1">
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:14" s="24" customFormat="1" ht="21">
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:14" s="24" customFormat="1"/>
-    <row r="9" spans="1:14" s="24" customFormat="1"/>
-    <row r="10" spans="1:14" s="31" customFormat="1" ht="40.200000000000003" customHeight="1">
-      <c r="A10" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="30" t="s">
+    <row r="1" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:24" s="19" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A7" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+    </row>
+    <row r="8" spans="1:24" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:24" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="46"/>
+    </row>
+    <row r="10" spans="1:24" s="22" customFormat="1" ht="70.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="W10" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="19" customFormat="1" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="C11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="30" t="s">
+      <c r="F11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="G11" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="H11" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="I11" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="J11" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="30" t="s">
+      <c r="S11" s="37" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.6" hidden="1">
-      <c r="A11" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="T11" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="U11" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="W11" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="23"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="23"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+    </row>
+    <row r="20" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="20"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="47"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="20"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="20"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="20"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="20"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="20"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="20"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="20"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="20"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="20"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="20"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="20"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KfP8PA9/uszXOXqom1vLt3RLDvM3hIBfmndpDXcSG0oQ9UZOsSmYU8jfq+IbqwBZB0BUu7Z9rL6ueAWDXzux9w==" saltValue="nknLKjxKhK2UyN/H8TFBkA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VSFKgxgR2LFGUDoESsY5PlyegO1VunqgQmoFwMFTxd5dn0E5IXUAIOXTHFUU3GT5HYLOvQ4riR2qGvjJ1kWWbg==" saltValue="Y1oroWr0L9HbLSemYM5v1g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="P9:X9"/>
+  </mergeCells>
   <dataValidations count="10">
-    <dataValidation type="whole" operator="notBetween" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No colocar (V) solo los numeros" error="V" promptTitle="Cédula" prompt="coloque el número de cedula de identidad del estudiante, en caso que el estudiante no posee cedula coloque la cedula escolar o deje el espacio en blanco" sqref="B12:B36" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="notBetween" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No colocar (V) solo los numeros" error="V" promptTitle="Cédula" prompt="coloque el número de cedula de identidad del estudiante, en caso que el estudiante no posee cedula coloque la cedula escolar o deje el espacio en blanco" sqref="E12:E36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombres" prompt="Escriba los nombres del estudiante" sqref="C12:C36" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Apellidos" prompt="Escriba los apellidos del estudiante" sqref="D12:D36" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre de la escuela" prompt="Colocar el nombre de la institución donde pertenece el estudiante" sqref="A12:B36" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
-    <dataValidation type="whole" operator="notBetween" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No colocar (V) solo los números" error="V" promptTitle="Cédula" prompt="Coloque el número de cedula de identidad." sqref="I12:I36" xr:uid="{00000000-0002-0000-0000-000010000000}">
+    <dataValidation type="whole" operator="notBetween" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No colocar (V) solo los números" error="V" promptTitle="Cédula" prompt="Coloque el número de cedula de identidad." sqref="R12:R36" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre del representante" prompt="Escriba los nombres del estudiante" sqref="J12:J36" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Apellidos del representante" prompt="Escriba los apellidos del estudiante" sqref="K12:K36" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12:L36" xr:uid="{00000000-0002-0000-0000-000013000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre del representante" prompt="Escriba los nombres del estudiante" sqref="P12:P36" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Apellidos del representante" prompt="Escriba los apellidos del estudiante" sqref="Q12:Q36" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M36" xr:uid="{00000000-0002-0000-0000-000013000000}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Edad" error="Coloque la edad del estudiante en número " promptTitle="Edad" prompt="Coloque la edad del estudiante en número " sqref="E12:E36" xr:uid="{00000000-0002-0000-0000-000014000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Edad" error="Coloque la edad del estudiante en número " promptTitle="Edad" prompt="Coloque la edad del estudiante en número " sqref="F12:F36" xr:uid="{00000000-0002-0000-0000-000014000000}">
       <formula1>1</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="talla de camisa" error="Colocar talla de camisa en numero" promptTitle="talla de camisa" prompt="Colocar talla de camisa en numero" sqref="H12:I36" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre de la escuela" prompt="Colocar el nombre de la institución donde pertenece el estudiante" sqref="B12:B36 E12:E36" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="talla de camisa" error="Colocar talla de camisa en numero" promptTitle="talla de camisa" prompt="Colocar talla de camisa en numero" sqref="I12:I36 R12:R36" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1796,13 +2474,13 @@
           <x14:formula1>
             <xm:f>Hoja2!$F$3:$F$15</xm:f>
           </x14:formula1>
-          <xm:sqref>G12:G36</xm:sqref>
+          <xm:sqref>H12:H36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sexo" prompt="Seleccione Masculino o Femenino segun corresponda" xr:uid="{00000000-0002-0000-0000-000019000000}">
           <x14:formula1>
             <xm:f>Hoja2!$A$3:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F12:F36</xm:sqref>
+          <xm:sqref>G12:G36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1819,123 +2497,123 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" s="1" customFormat="1"/>
-    <row r="5" spans="1:1" s="1" customFormat="1"/>
-    <row r="6" spans="1:1" s="1" customFormat="1"/>
-    <row r="8" spans="1:1" ht="18">
+    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="39.9" customHeight="1">
+    <row r="9" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="39.9" customHeight="1">
+    <row r="10" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="39.9" customHeight="1">
+    <row r="11" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="39.9" customHeight="1">
+    <row r="12" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="51.75" customHeight="1">
+    <row r="13" spans="1:1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="39.9" customHeight="1">
+    <row r="14" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="39.9" customHeight="1">
+    <row r="15" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="39.9" customHeight="1">
+    <row r="16" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="39.9" customHeight="1">
+    <row r="17" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="39.9" customHeight="1">
+    <row r="18" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="39.9" customHeight="1">
+    <row r="19" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="49.5" customHeight="1">
+    <row r="20" spans="1:1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="39.9" customHeight="1">
+    <row r="21" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="39.9" customHeight="1">
+    <row r="22" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="54" customHeight="1">
+    <row r="23" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="52.5" customHeight="1">
+    <row r="24" spans="1:1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="39.9" customHeight="1">
+    <row r="25" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="39.9" customHeight="1">
+    <row r="26" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="39.9" customHeight="1">
+    <row r="27" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="39.9" customHeight="1">
+    <row r="28" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="39.9" customHeight="1">
+    <row r="29" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:1" ht="39.9" customHeight="1">
+    <row r="30" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -1955,13 +2633,13 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="11" max="11" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1975,9 +2653,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1989,9 +2667,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.399999999999999">
+    <row r="4" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2003,7 +2681,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.399999999999999">
+    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
         <v>5</v>
       </c>
@@ -2014,7 +2692,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.399999999999999">
+    <row r="6" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>6</v>
       </c>
@@ -2025,7 +2703,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.399999999999999">
+    <row r="7" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>7</v>
       </c>
@@ -2036,7 +2714,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17.399999999999999">
+    <row r="8" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>8</v>
       </c>
@@ -2047,7 +2725,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17.399999999999999">
+    <row r="9" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>9</v>
       </c>
@@ -2058,7 +2736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17.399999999999999">
+    <row r="10" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>3</v>
       </c>
@@ -2069,7 +2747,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17.399999999999999">
+    <row r="11" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>10</v>
       </c>
@@ -2080,7 +2758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.399999999999999">
+    <row r="12" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>11</v>
       </c>
@@ -2091,7 +2769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>61</v>
       </c>
@@ -2102,7 +2780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.399999999999999">
+    <row r="14" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>62</v>
       </c>
@@ -2113,7 +2791,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>63</v>
       </c>
@@ -2124,7 +2802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>64</v>
       </c>
@@ -2135,7 +2813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="6:11" ht="15.6">
+    <row r="17" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>65</v>
       </c>
@@ -2146,7 +2824,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="6:11" ht="15.6">
+    <row r="18" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>66</v>
       </c>
@@ -2157,7 +2835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="6:11" ht="15.6">
+    <row r="19" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>41</v>
       </c>
@@ -2168,7 +2846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="6:11" ht="15.6">
+    <row r="20" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I20" s="1">
         <v>18</v>
       </c>
@@ -2176,7 +2854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="6:11" ht="15.6">
+    <row r="21" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I21" s="1">
         <v>19</v>
       </c>
@@ -2184,7 +2862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="6:11" ht="15.6">
+    <row r="22" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I22" s="1">
         <v>20</v>
       </c>
@@ -2192,7 +2870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="6:11" ht="34.799999999999997">
+    <row r="23" spans="6:11" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="I23" s="1">
         <v>21</v>
       </c>
@@ -2200,7 +2878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="17.399999999999999">
+    <row r="24" spans="6:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I24" s="1">
         <v>22</v>
       </c>
@@ -2208,7 +2886,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="6:11" ht="15.6">
+    <row r="25" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I25" s="1">
         <v>23</v>
       </c>
@@ -2216,7 +2894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="6:11" ht="15.6">
+    <row r="26" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I26" s="1">
         <v>24</v>
       </c>
@@ -2224,1022 +2902,1022 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="6:11">
+    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="6:11">
+    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I28" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="6:11">
+    <row r="29" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I29" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="6:11">
+    <row r="30" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I30" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="6:11">
+    <row r="31" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I31" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="6:11">
+    <row r="32" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I32" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I33" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="9:9">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I34" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="9:9">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I35" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="9:9">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I36" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="9:9">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I37" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="9:9">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I38" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="9:9">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I39" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="9:9">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I40" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="9:9">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I41" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="9:9">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I42" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="9:9">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I43" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="9:9">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="9:9">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="9:9">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="9:9">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="9:9">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I48" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="9:9">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I49" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="9:9">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I50" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="9:9">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I51" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="9:9">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I52" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="9:9">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="9:9">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="9:9">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="9:9">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="9:9">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="9:9">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="9:9">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="9:9">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="9:9">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="9:9">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="9:9">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="9:9">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="9:9">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="9:9">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="9:9">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="9:9">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="9:9">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="9:9">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="9:9">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="9:9">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="9:9">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="9:9">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="9:9">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="9:9">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="9:9">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="9:9">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="9:9">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="9:9">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="9:9">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="9:9">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="9:9">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="9:9">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="9:9">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="9:9">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="9:9">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="9:9">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="9:9">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="9:9">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="9:9">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="9:9">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="9:9">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="9:9">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="9:9">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="9:9">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="9:9">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="9:9">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="9:9">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="9:9">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="9:9">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="9:9">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="9:9">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="9:9">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="9:9">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="9:9">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="9:9">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="9:9">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="9:9">
+    <row r="109" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="9:9">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="9:9">
+    <row r="111" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="9:9">
+    <row r="112" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="9:9">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="9:9">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="9:9">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="9:9">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="9:9">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="9:9">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="9:9">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="9:9">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="9:9">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="9:9">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="9:9">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="9:9">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="9:9">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="9:9">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="9:9">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="9:9">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="9:9">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="9:9">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="9:9">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="9:9">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="9:9">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="9:9">
+    <row r="134" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="9:9">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="9:9">
+    <row r="136" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="9:9">
+    <row r="137" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="9:9">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="9:9">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="9:9">
+    <row r="140" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="9:9">
+    <row r="141" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="9:9">
+    <row r="142" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="9:9">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="9:9">
+    <row r="144" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="9:9">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="9:9">
+    <row r="146" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="9:9">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="9:9">
+    <row r="148" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="9:9">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="9:9">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="9:9">
+    <row r="151" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="9:9">
+    <row r="152" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="9:9">
+    <row r="153" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="9:9">
+    <row r="154" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="9:9">
+    <row r="155" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="9:9">
+    <row r="156" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="9:9">
+    <row r="157" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="9:9">
+    <row r="158" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="9:9">
+    <row r="159" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="9:9">
+    <row r="160" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="9:9">
+    <row r="161" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="9:9">
+    <row r="162" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="9:9">
+    <row r="163" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="9:9">
+    <row r="164" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="9:9">
+    <row r="165" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="9:9">
+    <row r="166" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="9:9">
+    <row r="167" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="9:9">
+    <row r="168" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="9:9">
+    <row r="169" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="9:9">
+    <row r="170" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="9:9">
+    <row r="171" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="9:9">
+    <row r="172" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="9:9">
+    <row r="173" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="9:9">
+    <row r="174" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="9:9">
+    <row r="175" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="9:9">
+    <row r="176" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="9:9">
+    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="9:9">
+    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="9:9">
+    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="9:9">
+    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="9:9">
+    <row r="181" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="9:9">
+    <row r="182" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="9:9">
+    <row r="183" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="9:9">
+    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="9:9">
+    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="9:9">
+    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="9:9">
+    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="9:9">
+    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="9:9">
+    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="9:9">
+    <row r="190" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="9:9">
+    <row r="191" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="9:9">
+    <row r="192" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="9:9">
+    <row r="193" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="9:9">
+    <row r="194" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="9:9">
+    <row r="195" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="9:9">
+    <row r="196" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="9:9">
+    <row r="197" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="9:9">
+    <row r="198" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="9:9">
+    <row r="199" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="9:9">
+    <row r="200" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="9:9">
+    <row r="201" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="9:9">
+    <row r="202" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="9:9">
+    <row r="203" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="9:9">
+    <row r="204" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="9:9">
+    <row r="205" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="9:9">
+    <row r="206" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="9:9">
+    <row r="207" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="9:9">
+    <row r="208" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="9:9">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="9:9">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="9:9">
+    <row r="211" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="9:9">
+    <row r="212" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="9:9">
+    <row r="213" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="9:9">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="9:9">
+    <row r="215" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="9:9">
+    <row r="216" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="9:9">
+    <row r="217" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="9:9">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="9:9">
+    <row r="219" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="9:9">
+    <row r="220" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="9:9">
+    <row r="221" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="9:9">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="9:9">
+    <row r="223" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="9:9">
+    <row r="224" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="9:9">
+    <row r="225" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="9:9">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="9:9">
+    <row r="227" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="9:9">
+    <row r="228" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="9:9">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="9:9">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="9:9">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="9:9">
+    <row r="232" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="9:9">
+    <row r="233" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="9:9">
+    <row r="234" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="9:9">
+    <row r="235" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="9:9">
+    <row r="236" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="9:9">
+    <row r="237" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="9:9">
+    <row r="238" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="9:9">
+    <row r="239" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="9:9">
+    <row r="240" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="9:9">
+    <row r="241" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="9:9">
+    <row r="242" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="9:9">
+    <row r="243" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="9:9">
+    <row r="244" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="9:9">
+    <row r="245" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="9:9">
+    <row r="246" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="9:9">
+    <row r="247" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="9:9">
+    <row r="248" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="9:9">
+    <row r="249" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="9:9">
+    <row r="250" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="9:9">
+    <row r="251" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I251" s="1"/>
     </row>
-    <row r="252" spans="9:9">
+    <row r="252" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="9:9">
+    <row r="253" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="9:9">
+    <row r="254" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="9:9">
+    <row r="255" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="9:9">
+    <row r="256" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="9:9">
+    <row r="257" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="9:9">
+    <row r="258" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="9:9">
+    <row r="259" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="9:9">
+    <row r="260" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="9:9">
+    <row r="261" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="9:9">
+    <row r="262" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="9:9">
+    <row r="263" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I263" s="1"/>
     </row>
-    <row r="264" spans="9:9">
+    <row r="264" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="9:9">
+    <row r="265" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="9:9">
+    <row r="266" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="9:9">
+    <row r="267" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I267" s="1"/>
     </row>
-    <row r="268" spans="9:9">
+    <row r="268" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="9:9">
+    <row r="269" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I269" s="1"/>
     </row>
-    <row r="270" spans="9:9">
+    <row r="270" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="9:9">
+    <row r="271" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="9:9">
+    <row r="272" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="9:9">
+    <row r="273" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="9:9">
+    <row r="274" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="9:9">
+    <row r="275" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="9:9">
+    <row r="276" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I276" s="1"/>
     </row>
-    <row r="277" spans="9:9">
+    <row r="277" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I277" s="1"/>
     </row>
-    <row r="278" spans="9:9">
+    <row r="278" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I278" s="1"/>
     </row>
-    <row r="279" spans="9:9">
+    <row r="279" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I279" s="1"/>
     </row>
-    <row r="280" spans="9:9">
+    <row r="280" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="9:9">
+    <row r="281" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="9:9">
+    <row r="282" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="9:9">
+    <row r="283" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="9:9">
+    <row r="284" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I284" s="1"/>
     </row>
-    <row r="285" spans="9:9">
+    <row r="285" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I285" s="1"/>
     </row>
-    <row r="286" spans="9:9">
+    <row r="286" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I286" s="1"/>
     </row>
-    <row r="287" spans="9:9">
+    <row r="287" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I287" s="1"/>
     </row>
-    <row r="288" spans="9:9">
+    <row r="288" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I288" s="1"/>
     </row>
-    <row r="289" spans="9:9">
+    <row r="289" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I289" s="1"/>
     </row>
-    <row r="290" spans="9:9">
+    <row r="290" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="9:9">
+    <row r="291" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="9:9">
+    <row r="292" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="9:9">
+    <row r="293" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="9:9">
+    <row r="294" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="9:9">
+    <row r="295" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="9:9">
+    <row r="296" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="9:9">
+    <row r="297" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="9:9">
+    <row r="298" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="9:9">
+    <row r="299" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="9:9">
+    <row r="300" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="9:9">
+    <row r="301" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I301" s="1"/>
     </row>
-    <row r="302" spans="9:9">
+    <row r="302" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I302" s="1"/>
     </row>
-    <row r="303" spans="9:9">
+    <row r="303" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I303" s="1"/>
     </row>
-    <row r="304" spans="9:9">
+    <row r="304" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I304" s="1"/>
     </row>
-    <row r="305" spans="9:9">
+    <row r="305" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I305" s="1"/>
     </row>
-    <row r="306" spans="9:9">
+    <row r="306" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I306" s="1"/>
     </row>
-    <row r="307" spans="9:9">
+    <row r="307" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="9:9">
+    <row r="308" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="9:9">
+    <row r="309" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="9:9">
+    <row r="310" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="9:9">
+    <row r="311" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="9:9">
+    <row r="312" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="9:9">
+    <row r="313" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="9:9">
+    <row r="314" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="9:9">
+    <row r="315" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="9:9">
+    <row r="316" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="9:9">
+    <row r="317" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="9:9">
+    <row r="318" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="9:9">
+    <row r="319" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="9:9">
+    <row r="320" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="9:9">
+    <row r="321" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="9:9">
+    <row r="322" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="9:9">
+    <row r="323" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="9:9">
+    <row r="324" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="9:9">
+    <row r="325" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="9:9">
+    <row r="326" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="9:9">
+    <row r="327" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="9:9">
+    <row r="328" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="9:9">
+    <row r="329" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="9:9">
+    <row r="330" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="9:9">
+    <row r="331" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I331" s="1"/>
     </row>
-    <row r="332" spans="9:9">
+    <row r="332" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="9:9">
+    <row r="333" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I333" s="1"/>
     </row>
-    <row r="334" spans="9:9">
+    <row r="334" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I334" s="1"/>
     </row>
-    <row r="335" spans="9:9">
+    <row r="335" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I335" s="1"/>
     </row>
-    <row r="336" spans="9:9">
+    <row r="336" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="9:9">
+    <row r="337" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="9:9">
+    <row r="338" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="9:9">
+    <row r="339" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="9:9">
+    <row r="340" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="9:9">
+    <row r="341" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="9:9">
+    <row r="342" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="9:9">
+    <row r="343" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="9:9">
+    <row r="344" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="9:9">
+    <row r="345" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="9:9">
+    <row r="346" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="9:9">
+    <row r="347" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="9:9">
+    <row r="348" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I348" s="1"/>
     </row>
   </sheetData>

--- a/files/formato_carga_pnsc.xlsx
+++ b/files/formato_carga_pnsc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Documents\web projects\react\portal_semillero_remix_1\zexcels_prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Documents\web projects\react\portal_semillero_remix_1\back\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79420856-BC71-4EC5-8D28-CAAFDCE7DEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBB37C0-EC3E-46E0-8F1D-496087E8EFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,33 +50,6 @@
     <t>8.Grado que cursa</t>
   </si>
   <si>
-    <t>7mo</t>
-  </si>
-  <si>
-    <t>1ro</t>
-  </si>
-  <si>
-    <t>2do</t>
-  </si>
-  <si>
-    <t>3ro</t>
-  </si>
-  <si>
-    <t>4to</t>
-  </si>
-  <si>
-    <t>5to</t>
-  </si>
-  <si>
-    <t>6to</t>
-  </si>
-  <si>
-    <t>8vo</t>
-  </si>
-  <si>
-    <t>9no</t>
-  </si>
-  <si>
     <t>Preescolar</t>
   </si>
   <si>
@@ -475,6 +448,33 @@
   <si>
     <t>representativeProfession</t>
   </si>
+  <si>
+    <t>1er grado</t>
+  </si>
+  <si>
+    <t>2do grado</t>
+  </si>
+  <si>
+    <t>3er grado</t>
+  </si>
+  <si>
+    <t>4to grado</t>
+  </si>
+  <si>
+    <t>5to grado</t>
+  </si>
+  <si>
+    <t>6to grado</t>
+  </si>
+  <si>
+    <t>7mo grado</t>
+  </si>
+  <si>
+    <t>8vo grado</t>
+  </si>
+  <si>
+    <t>9no grado</t>
+  </si>
 </sst>
 </file>
 
@@ -483,7 +483,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,36 +1031,36 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1534,10 +1534,10 @@
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="17" customWidth="1"/>
     <col min="2" max="4" width="30.6640625" style="17"/>
@@ -1554,224 +1554,224 @@
     <col min="15" max="16384" width="30.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="19" customFormat="1"/>
+    <row r="2" spans="1:24" s="19" customFormat="1"/>
+    <row r="3" spans="1:24" s="19" customFormat="1"/>
+    <row r="4" spans="1:24" s="19" customFormat="1"/>
+    <row r="5" spans="1:24" s="19" customFormat="1">
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="19" customFormat="1">
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:24" s="19" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:24" s="19" customFormat="1" ht="25.8">
+      <c r="A7" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+    </row>
+    <row r="8" spans="1:24" s="19" customFormat="1" ht="15" thickBot="1"/>
+    <row r="9" spans="1:24" s="19" customFormat="1" ht="15" thickBot="1">
+      <c r="A9" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="48"/>
+    </row>
+    <row r="10" spans="1:24" s="22" customFormat="1" ht="70.8" customHeight="1" thickBot="1">
+      <c r="A10" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-    </row>
-    <row r="8" spans="1:24" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:24" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+      <c r="H10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44" t="s">
+      <c r="I10" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="46"/>
-    </row>
-    <row r="10" spans="1:24" s="22" customFormat="1" ht="70.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="J10" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="K10" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="L10" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="M10" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="N10" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="O10" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="P10" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="R10" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="S10" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="T10" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="U10" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="V10" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="W10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="X10" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="O10" s="30" t="s">
+    </row>
+    <row r="11" spans="1:24" s="19" customFormat="1" ht="40.799999999999997" hidden="1">
+      <c r="A11" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="P10" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" s="32" t="s">
+      <c r="B11" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="K11" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="S10" s="32" t="s">
+      <c r="L11" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="T10" s="33" t="s">
+      <c r="M11" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="U10" s="32" t="s">
+      <c r="N11" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="V10" s="34" t="s">
+      <c r="O11" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="W10" s="33" t="s">
+      <c r="P11" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="X10" s="35" t="s">
+      <c r="W11" s="37" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" s="19" customFormat="1" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="X11" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="N11" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="P11" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="R11" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="S11" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="T11" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="U11" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="V11" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="W11" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="X11" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:24" ht="15.6">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="18"/>
@@ -1779,25 +1779,25 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="47"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
-      <c r="O12" s="48"/>
+      <c r="O12" s="40"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
     </row>
-    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.6">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="18"/>
@@ -1805,25 +1805,25 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="47"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
-      <c r="O13" s="48"/>
+      <c r="O13" s="40"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
     </row>
-    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.6">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="18"/>
@@ -1831,25 +1831,25 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="40"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
     </row>
-    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.6">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="18"/>
@@ -1857,25 +1857,25 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="47"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
-      <c r="O15" s="48"/>
+      <c r="O15" s="40"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
       <c r="W15" s="23"/>
       <c r="X15" s="23"/>
     </row>
-    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.6">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="18"/>
@@ -1883,25 +1883,25 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="47"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
-      <c r="O16" s="48"/>
+      <c r="O16" s="40"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
     </row>
-    <row r="17" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15.6">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="18"/>
@@ -1909,25 +1909,25 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="47"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
-      <c r="O17" s="48"/>
+      <c r="O17" s="40"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
       <c r="W17" s="23"/>
       <c r="X17" s="23"/>
     </row>
-    <row r="18" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.6">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="18"/>
@@ -1935,25 +1935,25 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="47"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
-      <c r="O18" s="48"/>
+      <c r="O18" s="40"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
       <c r="W18" s="23"/>
       <c r="X18" s="23"/>
     </row>
-    <row r="19" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15.6">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="18"/>
@@ -1961,25 +1961,25 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="47"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
-      <c r="O19" s="48"/>
+      <c r="O19" s="40"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
       <c r="W19" s="23"/>
       <c r="X19" s="23"/>
     </row>
-    <row r="20" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15.6">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="18"/>
@@ -1987,25 +1987,25 @@
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="47"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="48"/>
+      <c r="O20" s="40"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
       <c r="W20" s="23"/>
       <c r="X20" s="23"/>
     </row>
-    <row r="21" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15.6">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="18"/>
@@ -2013,25 +2013,25 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="47"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
-      <c r="O21" s="48"/>
+      <c r="O21" s="40"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
       <c r="W21" s="23"/>
       <c r="X21" s="23"/>
     </row>
-    <row r="22" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15.6">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="18"/>
@@ -2039,25 +2039,25 @@
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="47"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
-      <c r="O22" s="48"/>
+      <c r="O22" s="40"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
       <c r="W22" s="23"/>
       <c r="X22" s="23"/>
     </row>
-    <row r="23" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15.6">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="18"/>
@@ -2065,25 +2065,25 @@
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="47"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="18"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
-      <c r="O23" s="48"/>
+      <c r="O23" s="40"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
     </row>
-    <row r="24" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15.6">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="18"/>
@@ -2091,25 +2091,25 @@
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="47"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="18"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
-      <c r="O24" s="48"/>
+      <c r="O24" s="40"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
     </row>
-    <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15.6">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="18"/>
@@ -2117,25 +2117,25 @@
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="47"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="18"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
-      <c r="O25" s="48"/>
+      <c r="O25" s="40"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
       <c r="W25" s="23"/>
       <c r="X25" s="23"/>
     </row>
-    <row r="26" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15.6">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="18"/>
@@ -2143,25 +2143,25 @@
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="47"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="18"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
-      <c r="O26" s="48"/>
+      <c r="O26" s="40"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
       <c r="W26" s="23"/>
       <c r="X26" s="23"/>
     </row>
-    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15.6">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="18"/>
@@ -2169,25 +2169,25 @@
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="47"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="18"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
-      <c r="O27" s="48"/>
+      <c r="O27" s="40"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
       <c r="W27" s="23"/>
       <c r="X27" s="23"/>
     </row>
-    <row r="28" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15.6">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
@@ -2195,25 +2195,25 @@
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="47"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="18"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
-      <c r="O28" s="48"/>
+      <c r="O28" s="40"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
       <c r="W28" s="23"/>
       <c r="X28" s="23"/>
     </row>
-    <row r="29" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="15.6">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
@@ -2221,25 +2221,25 @@
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
-      <c r="H29" s="47"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="18"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
-      <c r="O29" s="48"/>
+      <c r="O29" s="40"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
       <c r="W29" s="23"/>
       <c r="X29" s="23"/>
     </row>
-    <row r="30" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="15.6">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
@@ -2247,25 +2247,25 @@
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="18"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
-      <c r="O30" s="48"/>
+      <c r="O30" s="40"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
@@ -2291,7 +2291,7 @@
       <c r="W31" s="23"/>
       <c r="X31" s="23"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="18"/>
@@ -2317,7 +2317,7 @@
       <c r="W32" s="23"/>
       <c r="X32" s="23"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="18"/>
@@ -2343,7 +2343,7 @@
       <c r="W33" s="23"/>
       <c r="X33" s="23"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="18"/>
@@ -2369,7 +2369,7 @@
       <c r="W34" s="23"/>
       <c r="X34" s="23"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="18"/>
@@ -2395,7 +2395,7 @@
       <c r="W35" s="23"/>
       <c r="X35" s="23"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="18"/>
@@ -2497,125 +2497,125 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="72.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" s="1" customFormat="1"/>
+    <row r="5" spans="1:1" s="1" customFormat="1"/>
+    <row r="6" spans="1:1" s="1" customFormat="1"/>
+    <row r="8" spans="1:1" ht="18">
       <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="51.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="18" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="19" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="49.5" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="22" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="23" spans="1:1" ht="54" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="24" spans="1:1" ht="52.5" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="25" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="26" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="27" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="28" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="29" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1" ht="39.9" customHeight="1">
+      <c r="A30" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2630,16 +2630,16 @@
   <dimension ref="A2:K348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="11" max="11" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2650,1274 +2650,1274 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.399999999999999">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.399999999999999">
       <c r="F5" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.399999999999999">
       <c r="F6" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.399999999999999">
       <c r="F7" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.399999999999999">
       <c r="F8" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="I8" s="1">
         <v>6</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.399999999999999">
       <c r="F9" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="I9" s="1">
         <v>7</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.399999999999999">
       <c r="F10" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.399999999999999">
       <c r="F11" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="I11" s="1">
         <v>9</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.399999999999999">
       <c r="F12" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6">
       <c r="F13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I13" s="1">
         <v>11</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.399999999999999">
       <c r="F14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1">
         <v>12</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6">
       <c r="F15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I15" s="1">
         <v>13</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6">
       <c r="F16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I16" s="1">
         <v>14</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" ht="15.6">
       <c r="F17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I17" s="1">
         <v>15</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" ht="15.6">
       <c r="F18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I18" s="1">
         <v>16</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" ht="15.6">
       <c r="F19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I19" s="1">
         <v>17</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" ht="15.6">
       <c r="I20" s="1">
         <v>18</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" ht="15.6">
       <c r="I21" s="1">
         <v>19</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" ht="15.6">
       <c r="I22" s="1">
         <v>20</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="6:11" ht="34.799999999999997" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" ht="34.799999999999997">
       <c r="I23" s="1">
         <v>21</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="17.399999999999999">
       <c r="I24" s="1">
         <v>22</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" ht="15.6">
       <c r="I25" s="1">
         <v>23</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" ht="15.6">
       <c r="I26" s="1">
         <v>24</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11">
       <c r="I27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:11">
       <c r="I28" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:11">
       <c r="I29" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:11">
       <c r="I30" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:11">
       <c r="I31" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:11">
       <c r="I32" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:9">
       <c r="I33" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:9">
       <c r="I34" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:9">
       <c r="I35" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:9">
       <c r="I36" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:9">
       <c r="I37" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:9">
       <c r="I38" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:9">
       <c r="I39" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:9">
       <c r="I40" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:9">
       <c r="I41" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:9">
       <c r="I42" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:9">
       <c r="I43" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:9">
       <c r="I44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:9">
       <c r="I45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:9">
       <c r="I46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:9">
       <c r="I47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:9">
       <c r="I48" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:9">
       <c r="I49" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:9">
       <c r="I50" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:9">
       <c r="I51" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:9">
       <c r="I52" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:9">
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:9">
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:9">
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:9">
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:9">
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:9">
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:9">
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:9">
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:9">
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:9">
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:9">
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:9">
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:9">
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:9">
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:9">
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:9">
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:9">
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:9">
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:9">
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:9">
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:9">
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:9">
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:9">
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:9">
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:9">
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:9">
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:9">
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:9">
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:9">
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:9">
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:9">
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:9">
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:9">
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:9">
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:9">
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:9">
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:9">
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:9">
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:9">
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:9">
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:9">
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:9">
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:9">
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:9">
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:9">
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:9">
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:9">
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:9">
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:9">
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:9">
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:9">
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:9">
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:9">
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:9">
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:9">
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:9">
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:9">
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:9">
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:9">
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:9">
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:9">
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:9">
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:9">
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:9">
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:9">
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:9">
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:9">
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:9">
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:9">
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:9">
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:9">
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:9">
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:9">
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:9">
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:9">
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:9">
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:9">
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:9">
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:9">
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:9">
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:9">
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:9">
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:9">
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:9">
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:9">
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:9">
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:9">
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:9">
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:9">
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:9">
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:9">
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:9">
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:9">
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:9">
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:9">
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:9">
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:9">
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:9">
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:9">
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:9">
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:9">
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:9">
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:9">
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:9">
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:9">
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:9">
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:9">
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:9">
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:9">
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:9">
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:9">
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:9">
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:9">
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:9">
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:9">
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:9">
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:9">
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:9">
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:9">
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:9">
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:9">
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:9">
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:9">
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:9">
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:9">
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:9">
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:9">
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:9">
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:9">
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:9">
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:9">
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:9">
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:9">
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:9">
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:9">
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:9">
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:9">
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:9">
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:9">
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:9">
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:9">
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:9">
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:9">
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:9">
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:9">
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:9">
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:9">
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="9:9">
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="9:9">
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="9:9">
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="9:9">
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="9:9">
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="9:9">
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="9:9">
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="9:9">
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="9:9">
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:9">
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:9">
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:9">
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:9">
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:9">
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:9">
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:9">
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:9">
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:9">
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:9">
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:9">
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:9">
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:9">
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:9">
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="9:9">
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="9:9">
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="9:9">
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="9:9">
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="9:9">
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="9:9">
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="9:9">
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="9:9">
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="9:9">
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="9:9">
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="9:9">
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="9:9">
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="9:9">
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="9:9">
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="9:9">
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="9:9">
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="9:9">
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="9:9">
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="9:9">
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="9:9">
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="9:9">
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="9:9">
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="9:9">
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="9:9">
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="9:9">
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="9:9">
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="9:9">
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="9:9">
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="9:9">
       <c r="I251" s="1"/>
     </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="9:9">
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="9:9">
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="9:9">
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="9:9">
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="9:9">
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="9:9">
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="9:9">
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="9:9">
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="9:9">
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="9:9">
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="9:9">
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="9:9">
       <c r="I263" s="1"/>
     </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="9:9">
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="9:9">
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="9:9">
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="9:9">
       <c r="I267" s="1"/>
     </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="9:9">
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="9:9">
       <c r="I269" s="1"/>
     </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="9:9">
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="9:9">
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="9:9">
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="9:9">
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="9:9">
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="9:9">
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="9:9">
       <c r="I276" s="1"/>
     </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="9:9">
       <c r="I277" s="1"/>
     </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="9:9">
       <c r="I278" s="1"/>
     </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="9:9">
       <c r="I279" s="1"/>
     </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="9:9">
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="9:9">
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="9:9">
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="9:9">
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="9:9">
       <c r="I284" s="1"/>
     </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="9:9">
       <c r="I285" s="1"/>
     </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="9:9">
       <c r="I286" s="1"/>
     </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="9:9">
       <c r="I287" s="1"/>
     </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="9:9">
       <c r="I288" s="1"/>
     </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="9:9">
       <c r="I289" s="1"/>
     </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="9:9">
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="9:9">
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="9:9">
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="9:9">
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="9:9">
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="9:9">
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="9:9">
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="9:9">
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="9:9">
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="9:9">
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="9:9">
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="9:9">
       <c r="I301" s="1"/>
     </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="9:9">
       <c r="I302" s="1"/>
     </row>
-    <row r="303" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="9:9">
       <c r="I303" s="1"/>
     </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="9:9">
       <c r="I304" s="1"/>
     </row>
-    <row r="305" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="9:9">
       <c r="I305" s="1"/>
     </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="9:9">
       <c r="I306" s="1"/>
     </row>
-    <row r="307" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="9:9">
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="9:9">
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="9:9">
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="9:9">
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="9:9">
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="9:9">
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="9:9">
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="9:9">
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="9:9">
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="9:9">
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="9:9">
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="9:9">
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="9:9">
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="9:9">
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="9:9">
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="9:9">
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="9:9">
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="9:9">
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="9:9">
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="9:9">
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="9:9">
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="9:9">
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="9:9">
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="9:9">
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="9:9">
       <c r="I331" s="1"/>
     </row>
-    <row r="332" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="9:9">
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="9:9">
       <c r="I333" s="1"/>
     </row>
-    <row r="334" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="9:9">
       <c r="I334" s="1"/>
     </row>
-    <row r="335" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="9:9">
       <c r="I335" s="1"/>
     </row>
-    <row r="336" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="9:9">
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="9:9">
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="9:9">
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="9:9">
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="9:9">
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="9:9">
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="9:9">
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="9:9">
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="9:9">
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="9:9">
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="9:9">
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="9:9">
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="9:9">
       <c r="I348" s="1"/>
     </row>
   </sheetData>

--- a/files/formato_carga_pnsc.xlsx
+++ b/files/formato_carga_pnsc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Documents\web projects\react\portal_semillero_remix_1\back\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3360ABE7-3801-41EE-8B07-CA93E6DB6F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566F93C-99E8-4A91-A90C-90650011C5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="1920" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Semillero Escuela" sheetId="1" r:id="rId1"/>
@@ -467,13 +467,13 @@
     <t>6to grado</t>
   </si>
   <si>
-    <t>7mo grado</t>
+    <t>1er año</t>
   </si>
   <si>
-    <t>8vo grado</t>
+    <t>2do año</t>
   </si>
   <si>
-    <t>9no grado</t>
+    <t>3er año</t>
   </si>
 </sst>
 </file>
@@ -1533,11 +1533,11 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O138" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y161" sqref="Y161"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="17" customWidth="1"/>
     <col min="2" max="4" width="30.6640625" style="17"/>
@@ -27560,7 +27560,7 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="72.6640625" customWidth="1"/>
   </cols>
@@ -27693,10 +27693,10 @@
   <dimension ref="A2:K348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="11" max="11" width="20.88671875" customWidth="1"/>

--- a/files/formato_carga_pnsc.xlsx
+++ b/files/formato_carga_pnsc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Documents\web projects\react\portal_semillero_remix_1\back\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566F93C-99E8-4A91-A90C-90650011C5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B846464-EA12-46BE-989D-F50C6064E909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="1920" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Semillero Escuela" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>6.Edad</t>
   </si>
@@ -253,21 +253,6 @@
     <t>FUNDACITE</t>
   </si>
   <si>
-    <t>C. Div. 4to Año</t>
-  </si>
-  <si>
-    <t>C. Div. 5to Año</t>
-  </si>
-  <si>
-    <t>C. Téc. 4to Año</t>
-  </si>
-  <si>
-    <t>C. Téc. 5to Año</t>
-  </si>
-  <si>
-    <t>C. Téc. 6to Año</t>
-  </si>
-  <si>
     <t>Universitario</t>
   </si>
   <si>
@@ -275,48 +260,6 @@
   </si>
   <si>
     <t>Masculino</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>ci</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>shirtSize</t>
-  </si>
-  <si>
-    <t>representativeCI</t>
-  </si>
-  <si>
-    <t>representativeName</t>
-  </si>
-  <si>
-    <t>representativeLastName</t>
-  </si>
-  <si>
-    <t>representativeAge</t>
-  </si>
-  <si>
-    <t>representativeKindred</t>
-  </si>
-  <si>
-    <t>representativePhone</t>
   </si>
   <si>
     <t>RELACIÓN DE JORNADAS INSTITUCIONALES 2025</t>
@@ -395,15 +338,6 @@
     <t>Teléfono celular</t>
   </si>
   <si>
-    <t xml:space="preserve">Apellidos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cédula de Identidad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edad </t>
-  </si>
-  <si>
     <t>Parentesco representante</t>
   </si>
   <si>
@@ -417,36 +351,6 @@
   </si>
   <si>
     <t>Profesión y/o oficio representante</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>disability</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>state_aux</t>
-  </si>
-  <si>
-    <t>municipality_aux</t>
-  </si>
-  <si>
-    <t>parish_aux</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>representativePhone2</t>
-  </si>
-  <si>
-    <t>representativeEmail</t>
-  </si>
-  <si>
-    <t>representativeProfession</t>
   </si>
   <si>
     <t>1er grado</t>
@@ -475,6 +379,33 @@
   <si>
     <t>3er año</t>
   </si>
+  <si>
+    <t>Cédula de Identidad</t>
+  </si>
+  <si>
+    <t>Edad Representante</t>
+  </si>
+  <si>
+    <t>Nombres Representante</t>
+  </si>
+  <si>
+    <t>Apellidos Representante</t>
+  </si>
+  <si>
+    <t>C. Div. 4to año</t>
+  </si>
+  <si>
+    <t>C. Div. 5to año</t>
+  </si>
+  <si>
+    <t>C. Téc. 4to año</t>
+  </si>
+  <si>
+    <t>C. Téc. 5to año</t>
+  </si>
+  <si>
+    <t>C. Téc. 6to año</t>
+  </si>
 </sst>
 </file>
 
@@ -483,7 +414,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,14 +563,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,20 +619,8 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -888,26 +801,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -919,7 +812,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1020,15 +913,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1531,10 +1415,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:X1000"/>
+  <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="14.4"/>
@@ -1565,211 +1449,163 @@
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:24" s="19" customFormat="1" ht="25.8">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+    </row>
+    <row r="8" spans="1:24" s="19" customFormat="1" ht="15" thickBot="1"/>
+    <row r="9" spans="1:24" s="19" customFormat="1" ht="15" thickBot="1">
+      <c r="A9" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="45"/>
+    </row>
+    <row r="10" spans="1:24" s="22" customFormat="1" ht="70.8" customHeight="1" thickBot="1">
+      <c r="A10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="U10" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-    </row>
-    <row r="8" spans="1:24" s="19" customFormat="1" ht="15" thickBot="1"/>
-    <row r="9" spans="1:24" s="19" customFormat="1" ht="15" thickBot="1">
-      <c r="A9" s="42" t="s">
+      <c r="V10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="46" t="s">
+      <c r="W10" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="48"/>
-    </row>
-    <row r="10" spans="1:24" s="22" customFormat="1" ht="70.8" customHeight="1" thickBot="1">
-      <c r="A10" s="27" t="s">
+      <c r="X10" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="W10" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="X10" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="19" customFormat="1" ht="40.799999999999997" hidden="1">
-      <c r="A11" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="M11" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="N11" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="T11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="U11" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="V11" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="W11" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="X11" s="37" t="s">
-        <v>109</v>
-      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.6">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
     </row>
     <row r="12" spans="1:24" ht="15.6">
       <c r="A12" s="23"/>
@@ -1779,21 +1615,21 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="39"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
-      <c r="O12" s="40"/>
+      <c r="O12" s="37"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
     </row>
@@ -1805,21 +1641,21 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
-      <c r="O13" s="40"/>
+      <c r="O13" s="37"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
     </row>
@@ -1831,21 +1667,21 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
-      <c r="O14" s="40"/>
+      <c r="O14" s="37"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
     </row>
@@ -1857,21 +1693,21 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
-      <c r="O15" s="40"/>
+      <c r="O15" s="37"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
       <c r="W15" s="23"/>
       <c r="X15" s="23"/>
     </row>
@@ -1883,21 +1719,21 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="39"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
-      <c r="O16" s="40"/>
+      <c r="O16" s="37"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
     </row>
@@ -1909,21 +1745,21 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="39"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
-      <c r="O17" s="40"/>
+      <c r="O17" s="37"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
       <c r="W17" s="23"/>
       <c r="X17" s="23"/>
     </row>
@@ -1935,21 +1771,21 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="39"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
-      <c r="O18" s="40"/>
+      <c r="O18" s="37"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
       <c r="W18" s="23"/>
       <c r="X18" s="23"/>
     </row>
@@ -1961,21 +1797,21 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="39"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
-      <c r="O19" s="40"/>
+      <c r="O19" s="37"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
       <c r="W19" s="23"/>
       <c r="X19" s="23"/>
     </row>
@@ -1987,21 +1823,21 @@
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="40"/>
+      <c r="O20" s="37"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
       <c r="W20" s="23"/>
       <c r="X20" s="23"/>
     </row>
@@ -2013,21 +1849,21 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="39"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
-      <c r="O21" s="40"/>
+      <c r="O21" s="37"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
       <c r="W21" s="23"/>
       <c r="X21" s="23"/>
     </row>
@@ -2039,21 +1875,21 @@
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="23"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
-      <c r="O22" s="40"/>
+      <c r="O22" s="37"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
       <c r="W22" s="23"/>
       <c r="X22" s="23"/>
     </row>
@@ -2065,21 +1901,21 @@
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="39"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="18"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
-      <c r="O23" s="40"/>
+      <c r="O23" s="37"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
     </row>
@@ -2091,21 +1927,21 @@
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="18"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
-      <c r="O24" s="40"/>
+      <c r="O24" s="37"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
     </row>
@@ -2117,21 +1953,21 @@
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="18"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
-      <c r="O25" s="40"/>
+      <c r="O25" s="37"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
       <c r="W25" s="23"/>
       <c r="X25" s="23"/>
     </row>
@@ -2143,21 +1979,21 @@
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="18"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
-      <c r="O26" s="40"/>
+      <c r="O26" s="37"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
       <c r="W26" s="23"/>
       <c r="X26" s="23"/>
     </row>
@@ -2169,21 +2005,21 @@
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="18"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
-      <c r="O27" s="40"/>
+      <c r="O27" s="37"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
       <c r="W27" s="23"/>
       <c r="X27" s="23"/>
     </row>
@@ -2195,21 +2031,21 @@
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="39"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="18"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
-      <c r="O28" s="40"/>
+      <c r="O28" s="37"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
       <c r="W28" s="23"/>
       <c r="X28" s="23"/>
     </row>
@@ -2221,25 +2057,25 @@
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="18"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
-      <c r="O29" s="40"/>
+      <c r="O29" s="37"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
       <c r="W29" s="23"/>
       <c r="X29" s="23"/>
     </row>
-    <row r="30" spans="1:24" ht="15.6">
+    <row r="30" spans="1:24">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
@@ -2247,21 +2083,21 @@
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
-      <c r="H30" s="39"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
-      <c r="O30" s="40"/>
+      <c r="O30" s="25"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
     </row>
@@ -2395,7 +2231,7 @@
       <c r="W35" s="23"/>
       <c r="X35" s="23"/>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" ht="15.6">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="18"/>
@@ -2403,21 +2239,21 @@
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="25"/>
+      <c r="O36" s="37"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
     </row>
@@ -2429,21 +2265,21 @@
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
-      <c r="H37" s="39"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
-      <c r="O37" s="40"/>
+      <c r="O37" s="37"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
       <c r="W37" s="23"/>
       <c r="X37" s="23"/>
     </row>
@@ -2455,21 +2291,21 @@
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
-      <c r="O38" s="40"/>
+      <c r="O38" s="37"/>
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
     </row>
@@ -2481,21 +2317,21 @@
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="39"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
-      <c r="O39" s="40"/>
+      <c r="O39" s="37"/>
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
       <c r="W39" s="23"/>
       <c r="X39" s="23"/>
     </row>
@@ -2507,21 +2343,21 @@
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
-      <c r="H40" s="39"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
-      <c r="O40" s="40"/>
+      <c r="O40" s="37"/>
       <c r="P40" s="18"/>
       <c r="Q40" s="18"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
       <c r="W40" s="23"/>
       <c r="X40" s="23"/>
     </row>
@@ -2533,21 +2369,21 @@
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
-      <c r="H41" s="39"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
-      <c r="O41" s="40"/>
+      <c r="O41" s="37"/>
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
       <c r="W41" s="23"/>
       <c r="X41" s="23"/>
     </row>
@@ -2559,21 +2395,21 @@
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
-      <c r="H42" s="39"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="40"/>
+      <c r="O42" s="37"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
       <c r="W42" s="23"/>
       <c r="X42" s="23"/>
     </row>
@@ -2585,21 +2421,21 @@
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
-      <c r="H43" s="39"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
-      <c r="O43" s="40"/>
+      <c r="O43" s="37"/>
       <c r="P43" s="18"/>
       <c r="Q43" s="18"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
       <c r="W43" s="23"/>
       <c r="X43" s="23"/>
     </row>
@@ -2611,21 +2447,21 @@
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
-      <c r="H44" s="39"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="40"/>
+      <c r="O44" s="37"/>
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
       <c r="W44" s="23"/>
       <c r="X44" s="23"/>
     </row>
@@ -2637,21 +2473,21 @@
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
-      <c r="H45" s="39"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
-      <c r="O45" s="40"/>
+      <c r="O45" s="37"/>
       <c r="P45" s="18"/>
       <c r="Q45" s="18"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
       <c r="W45" s="23"/>
       <c r="X45" s="23"/>
     </row>
@@ -2663,21 +2499,21 @@
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
-      <c r="H46" s="39"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
-      <c r="O46" s="40"/>
+      <c r="O46" s="37"/>
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
       <c r="W46" s="23"/>
       <c r="X46" s="23"/>
     </row>
@@ -2689,21 +2525,21 @@
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="23"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="18"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
-      <c r="O47" s="40"/>
+      <c r="O47" s="37"/>
       <c r="P47" s="18"/>
       <c r="Q47" s="18"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
       <c r="W47" s="23"/>
       <c r="X47" s="23"/>
     </row>
@@ -2715,21 +2551,21 @@
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
-      <c r="H48" s="39"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="18"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="40"/>
+      <c r="O48" s="37"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
       <c r="W48" s="23"/>
       <c r="X48" s="23"/>
     </row>
@@ -2741,21 +2577,21 @@
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="39"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="18"/>
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
       <c r="M49" s="18"/>
       <c r="N49" s="18"/>
-      <c r="O49" s="40"/>
+      <c r="O49" s="37"/>
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
       <c r="W49" s="23"/>
       <c r="X49" s="23"/>
     </row>
@@ -2767,21 +2603,21 @@
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
-      <c r="H50" s="39"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="18"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
       <c r="M50" s="18"/>
       <c r="N50" s="18"/>
-      <c r="O50" s="40"/>
+      <c r="O50" s="37"/>
       <c r="P50" s="18"/>
       <c r="Q50" s="18"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
       <c r="W50" s="23"/>
       <c r="X50" s="23"/>
     </row>
@@ -2793,21 +2629,21 @@
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="39"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="18"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
       <c r="M51" s="18"/>
       <c r="N51" s="18"/>
-      <c r="O51" s="40"/>
+      <c r="O51" s="37"/>
       <c r="P51" s="18"/>
       <c r="Q51" s="18"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
       <c r="W51" s="23"/>
       <c r="X51" s="23"/>
     </row>
@@ -2819,21 +2655,21 @@
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
-      <c r="H52" s="39"/>
+      <c r="H52" s="36"/>
       <c r="I52" s="18"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
       <c r="M52" s="18"/>
       <c r="N52" s="18"/>
-      <c r="O52" s="40"/>
+      <c r="O52" s="37"/>
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
       <c r="W52" s="23"/>
       <c r="X52" s="23"/>
     </row>
@@ -2845,21 +2681,21 @@
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
-      <c r="H53" s="39"/>
+      <c r="H53" s="36"/>
       <c r="I53" s="18"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
       <c r="M53" s="18"/>
       <c r="N53" s="18"/>
-      <c r="O53" s="40"/>
+      <c r="O53" s="37"/>
       <c r="P53" s="18"/>
       <c r="Q53" s="18"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
       <c r="W53" s="23"/>
       <c r="X53" s="23"/>
     </row>
@@ -2871,25 +2707,25 @@
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
-      <c r="H54" s="39"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="18"/>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
-      <c r="O54" s="40"/>
+      <c r="O54" s="37"/>
       <c r="P54" s="18"/>
       <c r="Q54" s="18"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
       <c r="W54" s="23"/>
       <c r="X54" s="23"/>
     </row>
-    <row r="55" spans="1:24" ht="15.6">
+    <row r="55" spans="1:24">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="18"/>
@@ -2897,21 +2733,21 @@
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="39"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="18"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
-      <c r="O55" s="40"/>
+      <c r="O55" s="25"/>
       <c r="P55" s="18"/>
       <c r="Q55" s="18"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
       <c r="W55" s="23"/>
       <c r="X55" s="23"/>
     </row>
@@ -3045,7 +2881,7 @@
       <c r="W60" s="23"/>
       <c r="X60" s="23"/>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" ht="15.6">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="18"/>
@@ -3053,21 +2889,21 @@
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="23"/>
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
-      <c r="O61" s="25"/>
+      <c r="O61" s="37"/>
       <c r="P61" s="18"/>
       <c r="Q61" s="18"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="23"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
       <c r="W61" s="23"/>
       <c r="X61" s="23"/>
     </row>
@@ -3079,21 +2915,21 @@
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
-      <c r="H62" s="39"/>
+      <c r="H62" s="36"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
       <c r="M62" s="18"/>
       <c r="N62" s="18"/>
-      <c r="O62" s="40"/>
+      <c r="O62" s="37"/>
       <c r="P62" s="18"/>
       <c r="Q62" s="18"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
       <c r="W62" s="23"/>
       <c r="X62" s="23"/>
     </row>
@@ -3105,21 +2941,21 @@
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
-      <c r="H63" s="39"/>
+      <c r="H63" s="36"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
       <c r="M63" s="18"/>
       <c r="N63" s="18"/>
-      <c r="O63" s="40"/>
+      <c r="O63" s="37"/>
       <c r="P63" s="18"/>
       <c r="Q63" s="18"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
       <c r="W63" s="23"/>
       <c r="X63" s="23"/>
     </row>
@@ -3131,21 +2967,21 @@
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
-      <c r="H64" s="39"/>
+      <c r="H64" s="36"/>
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
       <c r="M64" s="18"/>
       <c r="N64" s="18"/>
-      <c r="O64" s="40"/>
+      <c r="O64" s="37"/>
       <c r="P64" s="18"/>
       <c r="Q64" s="18"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
       <c r="W64" s="23"/>
       <c r="X64" s="23"/>
     </row>
@@ -3157,21 +2993,21 @@
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
-      <c r="H65" s="39"/>
+      <c r="H65" s="36"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
-      <c r="O65" s="40"/>
+      <c r="O65" s="37"/>
       <c r="P65" s="18"/>
       <c r="Q65" s="18"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
       <c r="W65" s="23"/>
       <c r="X65" s="23"/>
     </row>
@@ -3183,21 +3019,21 @@
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
-      <c r="H66" s="39"/>
+      <c r="H66" s="36"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23"/>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
-      <c r="O66" s="40"/>
+      <c r="O66" s="37"/>
       <c r="P66" s="18"/>
       <c r="Q66" s="18"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
       <c r="W66" s="23"/>
       <c r="X66" s="23"/>
     </row>
@@ -3209,21 +3045,21 @@
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
-      <c r="H67" s="39"/>
+      <c r="H67" s="36"/>
       <c r="I67" s="23"/>
       <c r="J67" s="23"/>
       <c r="K67" s="23"/>
       <c r="L67" s="23"/>
       <c r="M67" s="18"/>
       <c r="N67" s="18"/>
-      <c r="O67" s="40"/>
+      <c r="O67" s="37"/>
       <c r="P67" s="18"/>
       <c r="Q67" s="18"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
       <c r="W67" s="23"/>
       <c r="X67" s="23"/>
     </row>
@@ -3235,21 +3071,21 @@
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
-      <c r="H68" s="39"/>
+      <c r="H68" s="36"/>
       <c r="I68" s="23"/>
       <c r="J68" s="23"/>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
       <c r="M68" s="18"/>
       <c r="N68" s="18"/>
-      <c r="O68" s="40"/>
+      <c r="O68" s="37"/>
       <c r="P68" s="18"/>
       <c r="Q68" s="18"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="40"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
       <c r="W68" s="23"/>
       <c r="X68" s="23"/>
     </row>
@@ -3261,21 +3097,21 @@
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
-      <c r="H69" s="39"/>
+      <c r="H69" s="36"/>
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
       <c r="M69" s="18"/>
       <c r="N69" s="18"/>
-      <c r="O69" s="40"/>
+      <c r="O69" s="37"/>
       <c r="P69" s="18"/>
       <c r="Q69" s="18"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
       <c r="W69" s="23"/>
       <c r="X69" s="23"/>
     </row>
@@ -3287,21 +3123,21 @@
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
-      <c r="H70" s="39"/>
+      <c r="H70" s="36"/>
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
       <c r="M70" s="18"/>
       <c r="N70" s="18"/>
-      <c r="O70" s="40"/>
+      <c r="O70" s="37"/>
       <c r="P70" s="18"/>
       <c r="Q70" s="18"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
       <c r="W70" s="23"/>
       <c r="X70" s="23"/>
     </row>
@@ -3313,21 +3149,21 @@
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
-      <c r="H71" s="39"/>
+      <c r="H71" s="36"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
       <c r="M71" s="18"/>
       <c r="N71" s="18"/>
-      <c r="O71" s="40"/>
+      <c r="O71" s="37"/>
       <c r="P71" s="18"/>
       <c r="Q71" s="18"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
       <c r="W71" s="23"/>
       <c r="X71" s="23"/>
     </row>
@@ -3339,21 +3175,21 @@
       <c r="E72" s="18"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="23"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="18"/>
       <c r="J72" s="23"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="18"/>
       <c r="N72" s="18"/>
-      <c r="O72" s="40"/>
+      <c r="O72" s="37"/>
       <c r="P72" s="18"/>
       <c r="Q72" s="18"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
       <c r="W72" s="23"/>
       <c r="X72" s="23"/>
     </row>
@@ -3365,21 +3201,21 @@
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
-      <c r="H73" s="39"/>
+      <c r="H73" s="36"/>
       <c r="I73" s="18"/>
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
       <c r="M73" s="18"/>
       <c r="N73" s="18"/>
-      <c r="O73" s="40"/>
+      <c r="O73" s="37"/>
       <c r="P73" s="18"/>
       <c r="Q73" s="18"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="40"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
       <c r="W73" s="23"/>
       <c r="X73" s="23"/>
     </row>
@@ -3391,21 +3227,21 @@
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
-      <c r="H74" s="39"/>
+      <c r="H74" s="36"/>
       <c r="I74" s="18"/>
       <c r="J74" s="23"/>
       <c r="K74" s="23"/>
       <c r="L74" s="23"/>
       <c r="M74" s="18"/>
       <c r="N74" s="18"/>
-      <c r="O74" s="40"/>
+      <c r="O74" s="37"/>
       <c r="P74" s="18"/>
       <c r="Q74" s="18"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
-      <c r="V74" s="40"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37"/>
       <c r="W74" s="23"/>
       <c r="X74" s="23"/>
     </row>
@@ -3417,21 +3253,21 @@
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
-      <c r="H75" s="39"/>
+      <c r="H75" s="36"/>
       <c r="I75" s="18"/>
       <c r="J75" s="23"/>
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
       <c r="M75" s="18"/>
       <c r="N75" s="18"/>
-      <c r="O75" s="40"/>
+      <c r="O75" s="37"/>
       <c r="P75" s="18"/>
       <c r="Q75" s="18"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="40"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37"/>
       <c r="W75" s="23"/>
       <c r="X75" s="23"/>
     </row>
@@ -3443,21 +3279,21 @@
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
-      <c r="H76" s="39"/>
+      <c r="H76" s="36"/>
       <c r="I76" s="18"/>
       <c r="J76" s="23"/>
       <c r="K76" s="23"/>
       <c r="L76" s="23"/>
       <c r="M76" s="18"/>
       <c r="N76" s="18"/>
-      <c r="O76" s="40"/>
+      <c r="O76" s="37"/>
       <c r="P76" s="18"/>
       <c r="Q76" s="18"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37"/>
       <c r="W76" s="23"/>
       <c r="X76" s="23"/>
     </row>
@@ -3469,21 +3305,21 @@
       <c r="E77" s="18"/>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
-      <c r="H77" s="39"/>
+      <c r="H77" s="36"/>
       <c r="I77" s="18"/>
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
       <c r="L77" s="23"/>
       <c r="M77" s="18"/>
       <c r="N77" s="18"/>
-      <c r="O77" s="40"/>
+      <c r="O77" s="37"/>
       <c r="P77" s="18"/>
       <c r="Q77" s="18"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="40"/>
-      <c r="V77" s="40"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37"/>
       <c r="W77" s="23"/>
       <c r="X77" s="23"/>
     </row>
@@ -3495,21 +3331,21 @@
       <c r="E78" s="18"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="39"/>
+      <c r="H78" s="36"/>
       <c r="I78" s="18"/>
       <c r="J78" s="23"/>
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
       <c r="M78" s="18"/>
       <c r="N78" s="18"/>
-      <c r="O78" s="40"/>
+      <c r="O78" s="37"/>
       <c r="P78" s="18"/>
       <c r="Q78" s="18"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40"/>
-      <c r="U78" s="40"/>
-      <c r="V78" s="40"/>
+      <c r="R78" s="37"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
       <c r="W78" s="23"/>
       <c r="X78" s="23"/>
     </row>
@@ -3521,25 +3357,25 @@
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
-      <c r="H79" s="39"/>
+      <c r="H79" s="36"/>
       <c r="I79" s="18"/>
       <c r="J79" s="23"/>
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
       <c r="M79" s="18"/>
       <c r="N79" s="18"/>
-      <c r="O79" s="40"/>
+      <c r="O79" s="37"/>
       <c r="P79" s="18"/>
       <c r="Q79" s="18"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="40"/>
-      <c r="U79" s="40"/>
-      <c r="V79" s="40"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37"/>
       <c r="W79" s="23"/>
       <c r="X79" s="23"/>
     </row>
-    <row r="80" spans="1:24" ht="15.6">
+    <row r="80" spans="1:24">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="18"/>
@@ -3547,21 +3383,21 @@
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
-      <c r="H80" s="39"/>
+      <c r="H80" s="18"/>
       <c r="I80" s="18"/>
       <c r="J80" s="23"/>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
       <c r="M80" s="18"/>
       <c r="N80" s="18"/>
-      <c r="O80" s="40"/>
+      <c r="O80" s="25"/>
       <c r="P80" s="18"/>
       <c r="Q80" s="18"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40"/>
-      <c r="T80" s="40"/>
-      <c r="U80" s="40"/>
-      <c r="V80" s="40"/>
+      <c r="R80" s="26"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
       <c r="W80" s="23"/>
       <c r="X80" s="23"/>
     </row>
@@ -3695,7 +3531,7 @@
       <c r="W85" s="23"/>
       <c r="X85" s="23"/>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" ht="15.6">
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="18"/>
@@ -3703,21 +3539,21 @@
       <c r="E86" s="18"/>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="23"/>
       <c r="J86" s="23"/>
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
-      <c r="O86" s="25"/>
+      <c r="O86" s="37"/>
       <c r="P86" s="18"/>
       <c r="Q86" s="18"/>
-      <c r="R86" s="26"/>
-      <c r="S86" s="23"/>
-      <c r="T86" s="23"/>
-      <c r="U86" s="23"/>
-      <c r="V86" s="23"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
       <c r="W86" s="23"/>
       <c r="X86" s="23"/>
     </row>
@@ -3729,21 +3565,21 @@
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
-      <c r="H87" s="39"/>
+      <c r="H87" s="36"/>
       <c r="I87" s="23"/>
       <c r="J87" s="23"/>
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
       <c r="M87" s="18"/>
       <c r="N87" s="18"/>
-      <c r="O87" s="40"/>
+      <c r="O87" s="37"/>
       <c r="P87" s="18"/>
       <c r="Q87" s="18"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="40"/>
-      <c r="T87" s="40"/>
-      <c r="U87" s="40"/>
-      <c r="V87" s="40"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
       <c r="W87" s="23"/>
       <c r="X87" s="23"/>
     </row>
@@ -3755,21 +3591,21 @@
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
-      <c r="H88" s="39"/>
+      <c r="H88" s="36"/>
       <c r="I88" s="23"/>
       <c r="J88" s="23"/>
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
       <c r="M88" s="18"/>
       <c r="N88" s="18"/>
-      <c r="O88" s="40"/>
+      <c r="O88" s="37"/>
       <c r="P88" s="18"/>
       <c r="Q88" s="18"/>
-      <c r="R88" s="40"/>
-      <c r="S88" s="40"/>
-      <c r="T88" s="40"/>
-      <c r="U88" s="40"/>
-      <c r="V88" s="40"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
       <c r="W88" s="23"/>
       <c r="X88" s="23"/>
     </row>
@@ -3781,21 +3617,21 @@
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
-      <c r="H89" s="39"/>
+      <c r="H89" s="36"/>
       <c r="I89" s="23"/>
       <c r="J89" s="23"/>
       <c r="K89" s="23"/>
       <c r="L89" s="23"/>
       <c r="M89" s="18"/>
       <c r="N89" s="18"/>
-      <c r="O89" s="40"/>
+      <c r="O89" s="37"/>
       <c r="P89" s="18"/>
       <c r="Q89" s="18"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="40"/>
-      <c r="T89" s="40"/>
-      <c r="U89" s="40"/>
-      <c r="V89" s="40"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
       <c r="W89" s="23"/>
       <c r="X89" s="23"/>
     </row>
@@ -3807,21 +3643,21 @@
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
-      <c r="H90" s="39"/>
+      <c r="H90" s="36"/>
       <c r="I90" s="23"/>
       <c r="J90" s="23"/>
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
       <c r="M90" s="18"/>
       <c r="N90" s="18"/>
-      <c r="O90" s="40"/>
+      <c r="O90" s="37"/>
       <c r="P90" s="18"/>
       <c r="Q90" s="18"/>
-      <c r="R90" s="40"/>
-      <c r="S90" s="40"/>
-      <c r="T90" s="40"/>
-      <c r="U90" s="40"/>
-      <c r="V90" s="40"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
       <c r="W90" s="23"/>
       <c r="X90" s="23"/>
     </row>
@@ -3833,21 +3669,21 @@
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
-      <c r="H91" s="39"/>
+      <c r="H91" s="36"/>
       <c r="I91" s="23"/>
       <c r="J91" s="23"/>
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
       <c r="M91" s="18"/>
       <c r="N91" s="18"/>
-      <c r="O91" s="40"/>
+      <c r="O91" s="37"/>
       <c r="P91" s="18"/>
       <c r="Q91" s="18"/>
-      <c r="R91" s="40"/>
-      <c r="S91" s="40"/>
-      <c r="T91" s="40"/>
-      <c r="U91" s="40"/>
-      <c r="V91" s="40"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="37"/>
       <c r="W91" s="23"/>
       <c r="X91" s="23"/>
     </row>
@@ -3859,21 +3695,21 @@
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
       <c r="G92" s="18"/>
-      <c r="H92" s="39"/>
+      <c r="H92" s="36"/>
       <c r="I92" s="23"/>
       <c r="J92" s="23"/>
       <c r="K92" s="23"/>
       <c r="L92" s="23"/>
       <c r="M92" s="18"/>
       <c r="N92" s="18"/>
-      <c r="O92" s="40"/>
+      <c r="O92" s="37"/>
       <c r="P92" s="18"/>
       <c r="Q92" s="18"/>
-      <c r="R92" s="40"/>
-      <c r="S92" s="40"/>
-      <c r="T92" s="40"/>
-      <c r="U92" s="40"/>
-      <c r="V92" s="40"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+      <c r="U92" s="37"/>
+      <c r="V92" s="37"/>
       <c r="W92" s="23"/>
       <c r="X92" s="23"/>
     </row>
@@ -3885,21 +3721,21 @@
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
-      <c r="H93" s="39"/>
+      <c r="H93" s="36"/>
       <c r="I93" s="23"/>
       <c r="J93" s="23"/>
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
       <c r="M93" s="18"/>
       <c r="N93" s="18"/>
-      <c r="O93" s="40"/>
+      <c r="O93" s="37"/>
       <c r="P93" s="18"/>
       <c r="Q93" s="18"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="40"/>
-      <c r="T93" s="40"/>
-      <c r="U93" s="40"/>
-      <c r="V93" s="40"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="37"/>
+      <c r="T93" s="37"/>
+      <c r="U93" s="37"/>
+      <c r="V93" s="37"/>
       <c r="W93" s="23"/>
       <c r="X93" s="23"/>
     </row>
@@ -3911,21 +3747,21 @@
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
-      <c r="H94" s="39"/>
+      <c r="H94" s="36"/>
       <c r="I94" s="23"/>
       <c r="J94" s="23"/>
       <c r="K94" s="23"/>
       <c r="L94" s="23"/>
       <c r="M94" s="18"/>
       <c r="N94" s="18"/>
-      <c r="O94" s="40"/>
+      <c r="O94" s="37"/>
       <c r="P94" s="18"/>
       <c r="Q94" s="18"/>
-      <c r="R94" s="40"/>
-      <c r="S94" s="40"/>
-      <c r="T94" s="40"/>
-      <c r="U94" s="40"/>
-      <c r="V94" s="40"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
+      <c r="U94" s="37"/>
+      <c r="V94" s="37"/>
       <c r="W94" s="23"/>
       <c r="X94" s="23"/>
     </row>
@@ -3937,21 +3773,21 @@
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
-      <c r="H95" s="39"/>
+      <c r="H95" s="36"/>
       <c r="I95" s="23"/>
       <c r="J95" s="23"/>
       <c r="K95" s="23"/>
       <c r="L95" s="23"/>
       <c r="M95" s="18"/>
       <c r="N95" s="18"/>
-      <c r="O95" s="40"/>
+      <c r="O95" s="37"/>
       <c r="P95" s="18"/>
       <c r="Q95" s="18"/>
-      <c r="R95" s="40"/>
-      <c r="S95" s="40"/>
-      <c r="T95" s="40"/>
-      <c r="U95" s="40"/>
-      <c r="V95" s="40"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="37"/>
+      <c r="V95" s="37"/>
       <c r="W95" s="23"/>
       <c r="X95" s="23"/>
     </row>
@@ -3963,21 +3799,21 @@
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
-      <c r="H96" s="39"/>
+      <c r="H96" s="36"/>
       <c r="I96" s="23"/>
       <c r="J96" s="23"/>
       <c r="K96" s="23"/>
       <c r="L96" s="23"/>
       <c r="M96" s="18"/>
       <c r="N96" s="18"/>
-      <c r="O96" s="40"/>
+      <c r="O96" s="37"/>
       <c r="P96" s="18"/>
       <c r="Q96" s="18"/>
-      <c r="R96" s="40"/>
-      <c r="S96" s="40"/>
-      <c r="T96" s="40"/>
-      <c r="U96" s="40"/>
-      <c r="V96" s="40"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="37"/>
       <c r="W96" s="23"/>
       <c r="X96" s="23"/>
     </row>
@@ -3989,21 +3825,21 @@
       <c r="E97" s="18"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="23"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="18"/>
       <c r="J97" s="23"/>
       <c r="K97" s="23"/>
       <c r="L97" s="23"/>
       <c r="M97" s="18"/>
       <c r="N97" s="18"/>
-      <c r="O97" s="40"/>
+      <c r="O97" s="37"/>
       <c r="P97" s="18"/>
       <c r="Q97" s="18"/>
-      <c r="R97" s="40"/>
-      <c r="S97" s="40"/>
-      <c r="T97" s="40"/>
-      <c r="U97" s="40"/>
-      <c r="V97" s="40"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="37"/>
+      <c r="T97" s="37"/>
+      <c r="U97" s="37"/>
+      <c r="V97" s="37"/>
       <c r="W97" s="23"/>
       <c r="X97" s="23"/>
     </row>
@@ -4015,21 +3851,21 @@
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
       <c r="G98" s="18"/>
-      <c r="H98" s="39"/>
+      <c r="H98" s="36"/>
       <c r="I98" s="18"/>
       <c r="J98" s="23"/>
       <c r="K98" s="23"/>
       <c r="L98" s="23"/>
       <c r="M98" s="18"/>
       <c r="N98" s="18"/>
-      <c r="O98" s="40"/>
+      <c r="O98" s="37"/>
       <c r="P98" s="18"/>
       <c r="Q98" s="18"/>
-      <c r="R98" s="40"/>
-      <c r="S98" s="40"/>
-      <c r="T98" s="40"/>
-      <c r="U98" s="40"/>
-      <c r="V98" s="40"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
+      <c r="T98" s="37"/>
+      <c r="U98" s="37"/>
+      <c r="V98" s="37"/>
       <c r="W98" s="23"/>
       <c r="X98" s="23"/>
     </row>
@@ -4041,21 +3877,21 @@
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
-      <c r="H99" s="39"/>
+      <c r="H99" s="36"/>
       <c r="I99" s="18"/>
       <c r="J99" s="23"/>
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
       <c r="M99" s="18"/>
       <c r="N99" s="18"/>
-      <c r="O99" s="40"/>
+      <c r="O99" s="37"/>
       <c r="P99" s="18"/>
       <c r="Q99" s="18"/>
-      <c r="R99" s="40"/>
-      <c r="S99" s="40"/>
-      <c r="T99" s="40"/>
-      <c r="U99" s="40"/>
-      <c r="V99" s="40"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="37"/>
+      <c r="T99" s="37"/>
+      <c r="U99" s="37"/>
+      <c r="V99" s="37"/>
       <c r="W99" s="23"/>
       <c r="X99" s="23"/>
     </row>
@@ -4067,21 +3903,21 @@
       <c r="E100" s="18"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
-      <c r="H100" s="39"/>
+      <c r="H100" s="36"/>
       <c r="I100" s="18"/>
       <c r="J100" s="23"/>
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
       <c r="M100" s="18"/>
       <c r="N100" s="18"/>
-      <c r="O100" s="40"/>
+      <c r="O100" s="37"/>
       <c r="P100" s="18"/>
       <c r="Q100" s="18"/>
-      <c r="R100" s="40"/>
-      <c r="S100" s="40"/>
-      <c r="T100" s="40"/>
-      <c r="U100" s="40"/>
-      <c r="V100" s="40"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="37"/>
+      <c r="T100" s="37"/>
+      <c r="U100" s="37"/>
+      <c r="V100" s="37"/>
       <c r="W100" s="23"/>
       <c r="X100" s="23"/>
     </row>
@@ -4093,21 +3929,21 @@
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
-      <c r="H101" s="39"/>
+      <c r="H101" s="36"/>
       <c r="I101" s="18"/>
       <c r="J101" s="23"/>
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
       <c r="M101" s="18"/>
       <c r="N101" s="18"/>
-      <c r="O101" s="40"/>
+      <c r="O101" s="37"/>
       <c r="P101" s="18"/>
       <c r="Q101" s="18"/>
-      <c r="R101" s="40"/>
-      <c r="S101" s="40"/>
-      <c r="T101" s="40"/>
-      <c r="U101" s="40"/>
-      <c r="V101" s="40"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="37"/>
+      <c r="T101" s="37"/>
+      <c r="U101" s="37"/>
+      <c r="V101" s="37"/>
       <c r="W101" s="23"/>
       <c r="X101" s="23"/>
     </row>
@@ -4119,21 +3955,21 @@
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
-      <c r="H102" s="39"/>
+      <c r="H102" s="36"/>
       <c r="I102" s="18"/>
       <c r="J102" s="23"/>
       <c r="K102" s="23"/>
       <c r="L102" s="23"/>
       <c r="M102" s="18"/>
       <c r="N102" s="18"/>
-      <c r="O102" s="40"/>
+      <c r="O102" s="37"/>
       <c r="P102" s="18"/>
       <c r="Q102" s="18"/>
-      <c r="R102" s="40"/>
-      <c r="S102" s="40"/>
-      <c r="T102" s="40"/>
-      <c r="U102" s="40"/>
-      <c r="V102" s="40"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="37"/>
+      <c r="T102" s="37"/>
+      <c r="U102" s="37"/>
+      <c r="V102" s="37"/>
       <c r="W102" s="23"/>
       <c r="X102" s="23"/>
     </row>
@@ -4145,21 +3981,21 @@
       <c r="E103" s="18"/>
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
-      <c r="H103" s="39"/>
+      <c r="H103" s="36"/>
       <c r="I103" s="18"/>
       <c r="J103" s="23"/>
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
       <c r="M103" s="18"/>
       <c r="N103" s="18"/>
-      <c r="O103" s="40"/>
+      <c r="O103" s="37"/>
       <c r="P103" s="18"/>
       <c r="Q103" s="18"/>
-      <c r="R103" s="40"/>
-      <c r="S103" s="40"/>
-      <c r="T103" s="40"/>
-      <c r="U103" s="40"/>
-      <c r="V103" s="40"/>
+      <c r="R103" s="37"/>
+      <c r="S103" s="37"/>
+      <c r="T103" s="37"/>
+      <c r="U103" s="37"/>
+      <c r="V103" s="37"/>
       <c r="W103" s="23"/>
       <c r="X103" s="23"/>
     </row>
@@ -4171,25 +4007,25 @@
       <c r="E104" s="18"/>
       <c r="F104" s="18"/>
       <c r="G104" s="18"/>
-      <c r="H104" s="39"/>
+      <c r="H104" s="36"/>
       <c r="I104" s="18"/>
       <c r="J104" s="23"/>
       <c r="K104" s="23"/>
       <c r="L104" s="23"/>
       <c r="M104" s="18"/>
       <c r="N104" s="18"/>
-      <c r="O104" s="40"/>
+      <c r="O104" s="37"/>
       <c r="P104" s="18"/>
       <c r="Q104" s="18"/>
-      <c r="R104" s="40"/>
-      <c r="S104" s="40"/>
-      <c r="T104" s="40"/>
-      <c r="U104" s="40"/>
-      <c r="V104" s="40"/>
+      <c r="R104" s="37"/>
+      <c r="S104" s="37"/>
+      <c r="T104" s="37"/>
+      <c r="U104" s="37"/>
+      <c r="V104" s="37"/>
       <c r="W104" s="23"/>
       <c r="X104" s="23"/>
     </row>
-    <row r="105" spans="1:24" ht="15.6">
+    <row r="105" spans="1:24">
       <c r="A105" s="23"/>
       <c r="B105" s="24"/>
       <c r="C105" s="18"/>
@@ -4197,21 +4033,21 @@
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
-      <c r="H105" s="39"/>
+      <c r="H105" s="18"/>
       <c r="I105" s="18"/>
       <c r="J105" s="23"/>
       <c r="K105" s="23"/>
       <c r="L105" s="23"/>
       <c r="M105" s="18"/>
       <c r="N105" s="18"/>
-      <c r="O105" s="40"/>
+      <c r="O105" s="25"/>
       <c r="P105" s="18"/>
       <c r="Q105" s="18"/>
-      <c r="R105" s="40"/>
-      <c r="S105" s="40"/>
-      <c r="T105" s="40"/>
-      <c r="U105" s="40"/>
-      <c r="V105" s="40"/>
+      <c r="R105" s="26"/>
+      <c r="S105" s="23"/>
+      <c r="T105" s="23"/>
+      <c r="U105" s="23"/>
+      <c r="V105" s="23"/>
       <c r="W105" s="23"/>
       <c r="X105" s="23"/>
     </row>
@@ -4345,7 +4181,7 @@
       <c r="W110" s="23"/>
       <c r="X110" s="23"/>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" ht="15.6">
       <c r="A111" s="23"/>
       <c r="B111" s="24"/>
       <c r="C111" s="18"/>
@@ -4353,21 +4189,21 @@
       <c r="E111" s="18"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="23"/>
       <c r="J111" s="23"/>
       <c r="K111" s="23"/>
       <c r="L111" s="23"/>
       <c r="M111" s="18"/>
       <c r="N111" s="18"/>
-      <c r="O111" s="25"/>
+      <c r="O111" s="37"/>
       <c r="P111" s="18"/>
       <c r="Q111" s="18"/>
-      <c r="R111" s="26"/>
-      <c r="S111" s="23"/>
-      <c r="T111" s="23"/>
-      <c r="U111" s="23"/>
-      <c r="V111" s="23"/>
+      <c r="R111" s="37"/>
+      <c r="S111" s="37"/>
+      <c r="T111" s="37"/>
+      <c r="U111" s="37"/>
+      <c r="V111" s="37"/>
       <c r="W111" s="23"/>
       <c r="X111" s="23"/>
     </row>
@@ -4379,21 +4215,21 @@
       <c r="E112" s="18"/>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
-      <c r="H112" s="39"/>
+      <c r="H112" s="36"/>
       <c r="I112" s="23"/>
       <c r="J112" s="23"/>
       <c r="K112" s="23"/>
       <c r="L112" s="23"/>
       <c r="M112" s="18"/>
       <c r="N112" s="18"/>
-      <c r="O112" s="40"/>
+      <c r="O112" s="37"/>
       <c r="P112" s="18"/>
       <c r="Q112" s="18"/>
-      <c r="R112" s="40"/>
-      <c r="S112" s="40"/>
-      <c r="T112" s="40"/>
-      <c r="U112" s="40"/>
-      <c r="V112" s="40"/>
+      <c r="R112" s="37"/>
+      <c r="S112" s="37"/>
+      <c r="T112" s="37"/>
+      <c r="U112" s="37"/>
+      <c r="V112" s="37"/>
       <c r="W112" s="23"/>
       <c r="X112" s="23"/>
     </row>
@@ -4405,21 +4241,21 @@
       <c r="E113" s="18"/>
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
-      <c r="H113" s="39"/>
+      <c r="H113" s="36"/>
       <c r="I113" s="23"/>
       <c r="J113" s="23"/>
       <c r="K113" s="23"/>
       <c r="L113" s="23"/>
       <c r="M113" s="18"/>
       <c r="N113" s="18"/>
-      <c r="O113" s="40"/>
+      <c r="O113" s="37"/>
       <c r="P113" s="18"/>
       <c r="Q113" s="18"/>
-      <c r="R113" s="40"/>
-      <c r="S113" s="40"/>
-      <c r="T113" s="40"/>
-      <c r="U113" s="40"/>
-      <c r="V113" s="40"/>
+      <c r="R113" s="37"/>
+      <c r="S113" s="37"/>
+      <c r="T113" s="37"/>
+      <c r="U113" s="37"/>
+      <c r="V113" s="37"/>
       <c r="W113" s="23"/>
       <c r="X113" s="23"/>
     </row>
@@ -4431,21 +4267,21 @@
       <c r="E114" s="18"/>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
-      <c r="H114" s="39"/>
+      <c r="H114" s="36"/>
       <c r="I114" s="23"/>
       <c r="J114" s="23"/>
       <c r="K114" s="23"/>
       <c r="L114" s="23"/>
       <c r="M114" s="18"/>
       <c r="N114" s="18"/>
-      <c r="O114" s="40"/>
+      <c r="O114" s="37"/>
       <c r="P114" s="18"/>
       <c r="Q114" s="18"/>
-      <c r="R114" s="40"/>
-      <c r="S114" s="40"/>
-      <c r="T114" s="40"/>
-      <c r="U114" s="40"/>
-      <c r="V114" s="40"/>
+      <c r="R114" s="37"/>
+      <c r="S114" s="37"/>
+      <c r="T114" s="37"/>
+      <c r="U114" s="37"/>
+      <c r="V114" s="37"/>
       <c r="W114" s="23"/>
       <c r="X114" s="23"/>
     </row>
@@ -4457,21 +4293,21 @@
       <c r="E115" s="18"/>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
-      <c r="H115" s="39"/>
+      <c r="H115" s="36"/>
       <c r="I115" s="23"/>
       <c r="J115" s="23"/>
       <c r="K115" s="23"/>
       <c r="L115" s="23"/>
       <c r="M115" s="18"/>
       <c r="N115" s="18"/>
-      <c r="O115" s="40"/>
+      <c r="O115" s="37"/>
       <c r="P115" s="18"/>
       <c r="Q115" s="18"/>
-      <c r="R115" s="40"/>
-      <c r="S115" s="40"/>
-      <c r="T115" s="40"/>
-      <c r="U115" s="40"/>
-      <c r="V115" s="40"/>
+      <c r="R115" s="37"/>
+      <c r="S115" s="37"/>
+      <c r="T115" s="37"/>
+      <c r="U115" s="37"/>
+      <c r="V115" s="37"/>
       <c r="W115" s="23"/>
       <c r="X115" s="23"/>
     </row>
@@ -4483,21 +4319,21 @@
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
-      <c r="H116" s="39"/>
+      <c r="H116" s="36"/>
       <c r="I116" s="23"/>
       <c r="J116" s="23"/>
       <c r="K116" s="23"/>
       <c r="L116" s="23"/>
       <c r="M116" s="18"/>
       <c r="N116" s="18"/>
-      <c r="O116" s="40"/>
+      <c r="O116" s="37"/>
       <c r="P116" s="18"/>
       <c r="Q116" s="18"/>
-      <c r="R116" s="40"/>
-      <c r="S116" s="40"/>
-      <c r="T116" s="40"/>
-      <c r="U116" s="40"/>
-      <c r="V116" s="40"/>
+      <c r="R116" s="37"/>
+      <c r="S116" s="37"/>
+      <c r="T116" s="37"/>
+      <c r="U116" s="37"/>
+      <c r="V116" s="37"/>
       <c r="W116" s="23"/>
       <c r="X116" s="23"/>
     </row>
@@ -4509,21 +4345,21 @@
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
-      <c r="H117" s="39"/>
+      <c r="H117" s="36"/>
       <c r="I117" s="23"/>
       <c r="J117" s="23"/>
       <c r="K117" s="23"/>
       <c r="L117" s="23"/>
       <c r="M117" s="18"/>
       <c r="N117" s="18"/>
-      <c r="O117" s="40"/>
+      <c r="O117" s="37"/>
       <c r="P117" s="18"/>
       <c r="Q117" s="18"/>
-      <c r="R117" s="40"/>
-      <c r="S117" s="40"/>
-      <c r="T117" s="40"/>
-      <c r="U117" s="40"/>
-      <c r="V117" s="40"/>
+      <c r="R117" s="37"/>
+      <c r="S117" s="37"/>
+      <c r="T117" s="37"/>
+      <c r="U117" s="37"/>
+      <c r="V117" s="37"/>
       <c r="W117" s="23"/>
       <c r="X117" s="23"/>
     </row>
@@ -4535,21 +4371,21 @@
       <c r="E118" s="18"/>
       <c r="F118" s="18"/>
       <c r="G118" s="18"/>
-      <c r="H118" s="39"/>
+      <c r="H118" s="36"/>
       <c r="I118" s="23"/>
       <c r="J118" s="23"/>
       <c r="K118" s="23"/>
       <c r="L118" s="23"/>
       <c r="M118" s="18"/>
       <c r="N118" s="18"/>
-      <c r="O118" s="40"/>
+      <c r="O118" s="37"/>
       <c r="P118" s="18"/>
       <c r="Q118" s="18"/>
-      <c r="R118" s="40"/>
-      <c r="S118" s="40"/>
-      <c r="T118" s="40"/>
-      <c r="U118" s="40"/>
-      <c r="V118" s="40"/>
+      <c r="R118" s="37"/>
+      <c r="S118" s="37"/>
+      <c r="T118" s="37"/>
+      <c r="U118" s="37"/>
+      <c r="V118" s="37"/>
       <c r="W118" s="23"/>
       <c r="X118" s="23"/>
     </row>
@@ -4561,21 +4397,21 @@
       <c r="E119" s="18"/>
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
-      <c r="H119" s="39"/>
+      <c r="H119" s="36"/>
       <c r="I119" s="23"/>
       <c r="J119" s="23"/>
       <c r="K119" s="23"/>
       <c r="L119" s="23"/>
       <c r="M119" s="18"/>
       <c r="N119" s="18"/>
-      <c r="O119" s="40"/>
+      <c r="O119" s="37"/>
       <c r="P119" s="18"/>
       <c r="Q119" s="18"/>
-      <c r="R119" s="40"/>
-      <c r="S119" s="40"/>
-      <c r="T119" s="40"/>
-      <c r="U119" s="40"/>
-      <c r="V119" s="40"/>
+      <c r="R119" s="37"/>
+      <c r="S119" s="37"/>
+      <c r="T119" s="37"/>
+      <c r="U119" s="37"/>
+      <c r="V119" s="37"/>
       <c r="W119" s="23"/>
       <c r="X119" s="23"/>
     </row>
@@ -4587,21 +4423,21 @@
       <c r="E120" s="18"/>
       <c r="F120" s="18"/>
       <c r="G120" s="18"/>
-      <c r="H120" s="39"/>
+      <c r="H120" s="36"/>
       <c r="I120" s="23"/>
       <c r="J120" s="23"/>
       <c r="K120" s="23"/>
       <c r="L120" s="23"/>
       <c r="M120" s="18"/>
       <c r="N120" s="18"/>
-      <c r="O120" s="40"/>
+      <c r="O120" s="37"/>
       <c r="P120" s="18"/>
       <c r="Q120" s="18"/>
-      <c r="R120" s="40"/>
-      <c r="S120" s="40"/>
-      <c r="T120" s="40"/>
-      <c r="U120" s="40"/>
-      <c r="V120" s="40"/>
+      <c r="R120" s="37"/>
+      <c r="S120" s="37"/>
+      <c r="T120" s="37"/>
+      <c r="U120" s="37"/>
+      <c r="V120" s="37"/>
       <c r="W120" s="23"/>
       <c r="X120" s="23"/>
     </row>
@@ -4613,21 +4449,21 @@
       <c r="E121" s="18"/>
       <c r="F121" s="18"/>
       <c r="G121" s="18"/>
-      <c r="H121" s="39"/>
+      <c r="H121" s="36"/>
       <c r="I121" s="23"/>
       <c r="J121" s="23"/>
       <c r="K121" s="23"/>
       <c r="L121" s="23"/>
       <c r="M121" s="18"/>
       <c r="N121" s="18"/>
-      <c r="O121" s="40"/>
+      <c r="O121" s="37"/>
       <c r="P121" s="18"/>
       <c r="Q121" s="18"/>
-      <c r="R121" s="40"/>
-      <c r="S121" s="40"/>
-      <c r="T121" s="40"/>
-      <c r="U121" s="40"/>
-      <c r="V121" s="40"/>
+      <c r="R121" s="37"/>
+      <c r="S121" s="37"/>
+      <c r="T121" s="37"/>
+      <c r="U121" s="37"/>
+      <c r="V121" s="37"/>
       <c r="W121" s="23"/>
       <c r="X121" s="23"/>
     </row>
@@ -4639,21 +4475,21 @@
       <c r="E122" s="18"/>
       <c r="F122" s="18"/>
       <c r="G122" s="18"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="23"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="18"/>
       <c r="J122" s="23"/>
       <c r="K122" s="23"/>
       <c r="L122" s="23"/>
       <c r="M122" s="18"/>
       <c r="N122" s="18"/>
-      <c r="O122" s="40"/>
+      <c r="O122" s="37"/>
       <c r="P122" s="18"/>
       <c r="Q122" s="18"/>
-      <c r="R122" s="40"/>
-      <c r="S122" s="40"/>
-      <c r="T122" s="40"/>
-      <c r="U122" s="40"/>
-      <c r="V122" s="40"/>
+      <c r="R122" s="37"/>
+      <c r="S122" s="37"/>
+      <c r="T122" s="37"/>
+      <c r="U122" s="37"/>
+      <c r="V122" s="37"/>
       <c r="W122" s="23"/>
       <c r="X122" s="23"/>
     </row>
@@ -4665,21 +4501,21 @@
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
-      <c r="H123" s="39"/>
+      <c r="H123" s="36"/>
       <c r="I123" s="18"/>
       <c r="J123" s="23"/>
       <c r="K123" s="23"/>
       <c r="L123" s="23"/>
       <c r="M123" s="18"/>
       <c r="N123" s="18"/>
-      <c r="O123" s="40"/>
+      <c r="O123" s="37"/>
       <c r="P123" s="18"/>
       <c r="Q123" s="18"/>
-      <c r="R123" s="40"/>
-      <c r="S123" s="40"/>
-      <c r="T123" s="40"/>
-      <c r="U123" s="40"/>
-      <c r="V123" s="40"/>
+      <c r="R123" s="37"/>
+      <c r="S123" s="37"/>
+      <c r="T123" s="37"/>
+      <c r="U123" s="37"/>
+      <c r="V123" s="37"/>
       <c r="W123" s="23"/>
       <c r="X123" s="23"/>
     </row>
@@ -4691,21 +4527,21 @@
       <c r="E124" s="18"/>
       <c r="F124" s="18"/>
       <c r="G124" s="18"/>
-      <c r="H124" s="39"/>
+      <c r="H124" s="36"/>
       <c r="I124" s="18"/>
       <c r="J124" s="23"/>
       <c r="K124" s="23"/>
       <c r="L124" s="23"/>
       <c r="M124" s="18"/>
       <c r="N124" s="18"/>
-      <c r="O124" s="40"/>
+      <c r="O124" s="37"/>
       <c r="P124" s="18"/>
       <c r="Q124" s="18"/>
-      <c r="R124" s="40"/>
-      <c r="S124" s="40"/>
-      <c r="T124" s="40"/>
-      <c r="U124" s="40"/>
-      <c r="V124" s="40"/>
+      <c r="R124" s="37"/>
+      <c r="S124" s="37"/>
+      <c r="T124" s="37"/>
+      <c r="U124" s="37"/>
+      <c r="V124" s="37"/>
       <c r="W124" s="23"/>
       <c r="X124" s="23"/>
     </row>
@@ -4717,21 +4553,21 @@
       <c r="E125" s="18"/>
       <c r="F125" s="18"/>
       <c r="G125" s="18"/>
-      <c r="H125" s="39"/>
+      <c r="H125" s="36"/>
       <c r="I125" s="18"/>
       <c r="J125" s="23"/>
       <c r="K125" s="23"/>
       <c r="L125" s="23"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
-      <c r="O125" s="40"/>
+      <c r="O125" s="37"/>
       <c r="P125" s="18"/>
       <c r="Q125" s="18"/>
-      <c r="R125" s="40"/>
-      <c r="S125" s="40"/>
-      <c r="T125" s="40"/>
-      <c r="U125" s="40"/>
-      <c r="V125" s="40"/>
+      <c r="R125" s="37"/>
+      <c r="S125" s="37"/>
+      <c r="T125" s="37"/>
+      <c r="U125" s="37"/>
+      <c r="V125" s="37"/>
       <c r="W125" s="23"/>
       <c r="X125" s="23"/>
     </row>
@@ -4743,21 +4579,21 @@
       <c r="E126" s="18"/>
       <c r="F126" s="18"/>
       <c r="G126" s="18"/>
-      <c r="H126" s="39"/>
+      <c r="H126" s="36"/>
       <c r="I126" s="18"/>
       <c r="J126" s="23"/>
       <c r="K126" s="23"/>
       <c r="L126" s="23"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="40"/>
+      <c r="O126" s="37"/>
       <c r="P126" s="18"/>
       <c r="Q126" s="18"/>
-      <c r="R126" s="40"/>
-      <c r="S126" s="40"/>
-      <c r="T126" s="40"/>
-      <c r="U126" s="40"/>
-      <c r="V126" s="40"/>
+      <c r="R126" s="37"/>
+      <c r="S126" s="37"/>
+      <c r="T126" s="37"/>
+      <c r="U126" s="37"/>
+      <c r="V126" s="37"/>
       <c r="W126" s="23"/>
       <c r="X126" s="23"/>
     </row>
@@ -4769,21 +4605,21 @@
       <c r="E127" s="18"/>
       <c r="F127" s="18"/>
       <c r="G127" s="18"/>
-      <c r="H127" s="39"/>
+      <c r="H127" s="36"/>
       <c r="I127" s="18"/>
       <c r="J127" s="23"/>
       <c r="K127" s="23"/>
       <c r="L127" s="23"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="40"/>
+      <c r="O127" s="37"/>
       <c r="P127" s="18"/>
       <c r="Q127" s="18"/>
-      <c r="R127" s="40"/>
-      <c r="S127" s="40"/>
-      <c r="T127" s="40"/>
-      <c r="U127" s="40"/>
-      <c r="V127" s="40"/>
+      <c r="R127" s="37"/>
+      <c r="S127" s="37"/>
+      <c r="T127" s="37"/>
+      <c r="U127" s="37"/>
+      <c r="V127" s="37"/>
       <c r="W127" s="23"/>
       <c r="X127" s="23"/>
     </row>
@@ -4795,21 +4631,21 @@
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
       <c r="G128" s="18"/>
-      <c r="H128" s="39"/>
+      <c r="H128" s="36"/>
       <c r="I128" s="18"/>
       <c r="J128" s="23"/>
       <c r="K128" s="23"/>
       <c r="L128" s="23"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="40"/>
+      <c r="O128" s="37"/>
       <c r="P128" s="18"/>
       <c r="Q128" s="18"/>
-      <c r="R128" s="40"/>
-      <c r="S128" s="40"/>
-      <c r="T128" s="40"/>
-      <c r="U128" s="40"/>
-      <c r="V128" s="40"/>
+      <c r="R128" s="37"/>
+      <c r="S128" s="37"/>
+      <c r="T128" s="37"/>
+      <c r="U128" s="37"/>
+      <c r="V128" s="37"/>
       <c r="W128" s="23"/>
       <c r="X128" s="23"/>
     </row>
@@ -4821,25 +4657,25 @@
       <c r="E129" s="18"/>
       <c r="F129" s="18"/>
       <c r="G129" s="18"/>
-      <c r="H129" s="39"/>
+      <c r="H129" s="36"/>
       <c r="I129" s="18"/>
       <c r="J129" s="23"/>
       <c r="K129" s="23"/>
       <c r="L129" s="23"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="40"/>
+      <c r="O129" s="37"/>
       <c r="P129" s="18"/>
       <c r="Q129" s="18"/>
-      <c r="R129" s="40"/>
-      <c r="S129" s="40"/>
-      <c r="T129" s="40"/>
-      <c r="U129" s="40"/>
-      <c r="V129" s="40"/>
+      <c r="R129" s="37"/>
+      <c r="S129" s="37"/>
+      <c r="T129" s="37"/>
+      <c r="U129" s="37"/>
+      <c r="V129" s="37"/>
       <c r="W129" s="23"/>
       <c r="X129" s="23"/>
     </row>
-    <row r="130" spans="1:24" ht="15.6">
+    <row r="130" spans="1:24">
       <c r="A130" s="23"/>
       <c r="B130" s="24"/>
       <c r="C130" s="18"/>
@@ -4847,21 +4683,21 @@
       <c r="E130" s="18"/>
       <c r="F130" s="18"/>
       <c r="G130" s="18"/>
-      <c r="H130" s="39"/>
+      <c r="H130" s="18"/>
       <c r="I130" s="18"/>
       <c r="J130" s="23"/>
       <c r="K130" s="23"/>
       <c r="L130" s="23"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="40"/>
+      <c r="O130" s="25"/>
       <c r="P130" s="18"/>
       <c r="Q130" s="18"/>
-      <c r="R130" s="40"/>
-      <c r="S130" s="40"/>
-      <c r="T130" s="40"/>
-      <c r="U130" s="40"/>
-      <c r="V130" s="40"/>
+      <c r="R130" s="26"/>
+      <c r="S130" s="23"/>
+      <c r="T130" s="23"/>
+      <c r="U130" s="23"/>
+      <c r="V130" s="23"/>
       <c r="W130" s="23"/>
       <c r="X130" s="23"/>
     </row>
@@ -4995,7 +4831,7 @@
       <c r="W135" s="23"/>
       <c r="X135" s="23"/>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" ht="15.6">
       <c r="A136" s="23"/>
       <c r="B136" s="24"/>
       <c r="C136" s="18"/>
@@ -5003,21 +4839,21 @@
       <c r="E136" s="18"/>
       <c r="F136" s="18"/>
       <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="23"/>
       <c r="J136" s="23"/>
       <c r="K136" s="23"/>
       <c r="L136" s="23"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="25"/>
+      <c r="O136" s="37"/>
       <c r="P136" s="18"/>
       <c r="Q136" s="18"/>
-      <c r="R136" s="26"/>
-      <c r="S136" s="23"/>
-      <c r="T136" s="23"/>
-      <c r="U136" s="23"/>
-      <c r="V136" s="23"/>
+      <c r="R136" s="37"/>
+      <c r="S136" s="37"/>
+      <c r="T136" s="37"/>
+      <c r="U136" s="37"/>
+      <c r="V136" s="37"/>
       <c r="W136" s="23"/>
       <c r="X136" s="23"/>
     </row>
@@ -5029,21 +4865,21 @@
       <c r="E137" s="18"/>
       <c r="F137" s="18"/>
       <c r="G137" s="18"/>
-      <c r="H137" s="39"/>
+      <c r="H137" s="36"/>
       <c r="I137" s="23"/>
       <c r="J137" s="23"/>
       <c r="K137" s="23"/>
       <c r="L137" s="23"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="40"/>
+      <c r="O137" s="37"/>
       <c r="P137" s="18"/>
       <c r="Q137" s="18"/>
-      <c r="R137" s="40"/>
-      <c r="S137" s="40"/>
-      <c r="T137" s="40"/>
-      <c r="U137" s="40"/>
-      <c r="V137" s="40"/>
+      <c r="R137" s="37"/>
+      <c r="S137" s="37"/>
+      <c r="T137" s="37"/>
+      <c r="U137" s="37"/>
+      <c r="V137" s="37"/>
       <c r="W137" s="23"/>
       <c r="X137" s="23"/>
     </row>
@@ -5055,21 +4891,21 @@
       <c r="E138" s="18"/>
       <c r="F138" s="18"/>
       <c r="G138" s="18"/>
-      <c r="H138" s="39"/>
+      <c r="H138" s="36"/>
       <c r="I138" s="23"/>
       <c r="J138" s="23"/>
       <c r="K138" s="23"/>
       <c r="L138" s="23"/>
       <c r="M138" s="18"/>
       <c r="N138" s="18"/>
-      <c r="O138" s="40"/>
+      <c r="O138" s="37"/>
       <c r="P138" s="18"/>
       <c r="Q138" s="18"/>
-      <c r="R138" s="40"/>
-      <c r="S138" s="40"/>
-      <c r="T138" s="40"/>
-      <c r="U138" s="40"/>
-      <c r="V138" s="40"/>
+      <c r="R138" s="37"/>
+      <c r="S138" s="37"/>
+      <c r="T138" s="37"/>
+      <c r="U138" s="37"/>
+      <c r="V138" s="37"/>
       <c r="W138" s="23"/>
       <c r="X138" s="23"/>
     </row>
@@ -5081,21 +4917,21 @@
       <c r="E139" s="18"/>
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
-      <c r="H139" s="39"/>
+      <c r="H139" s="36"/>
       <c r="I139" s="23"/>
       <c r="J139" s="23"/>
       <c r="K139" s="23"/>
       <c r="L139" s="23"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="40"/>
+      <c r="O139" s="37"/>
       <c r="P139" s="18"/>
       <c r="Q139" s="18"/>
-      <c r="R139" s="40"/>
-      <c r="S139" s="40"/>
-      <c r="T139" s="40"/>
-      <c r="U139" s="40"/>
-      <c r="V139" s="40"/>
+      <c r="R139" s="37"/>
+      <c r="S139" s="37"/>
+      <c r="T139" s="37"/>
+      <c r="U139" s="37"/>
+      <c r="V139" s="37"/>
       <c r="W139" s="23"/>
       <c r="X139" s="23"/>
     </row>
@@ -5107,21 +4943,21 @@
       <c r="E140" s="18"/>
       <c r="F140" s="18"/>
       <c r="G140" s="18"/>
-      <c r="H140" s="39"/>
+      <c r="H140" s="36"/>
       <c r="I140" s="23"/>
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
       <c r="L140" s="23"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="40"/>
+      <c r="O140" s="37"/>
       <c r="P140" s="18"/>
       <c r="Q140" s="18"/>
-      <c r="R140" s="40"/>
-      <c r="S140" s="40"/>
-      <c r="T140" s="40"/>
-      <c r="U140" s="40"/>
-      <c r="V140" s="40"/>
+      <c r="R140" s="37"/>
+      <c r="S140" s="37"/>
+      <c r="T140" s="37"/>
+      <c r="U140" s="37"/>
+      <c r="V140" s="37"/>
       <c r="W140" s="23"/>
       <c r="X140" s="23"/>
     </row>
@@ -5133,21 +4969,21 @@
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
       <c r="G141" s="18"/>
-      <c r="H141" s="39"/>
+      <c r="H141" s="36"/>
       <c r="I141" s="23"/>
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
       <c r="L141" s="23"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="40"/>
+      <c r="O141" s="37"/>
       <c r="P141" s="18"/>
       <c r="Q141" s="18"/>
-      <c r="R141" s="40"/>
-      <c r="S141" s="40"/>
-      <c r="T141" s="40"/>
-      <c r="U141" s="40"/>
-      <c r="V141" s="40"/>
+      <c r="R141" s="37"/>
+      <c r="S141" s="37"/>
+      <c r="T141" s="37"/>
+      <c r="U141" s="37"/>
+      <c r="V141" s="37"/>
       <c r="W141" s="23"/>
       <c r="X141" s="23"/>
     </row>
@@ -5159,21 +4995,21 @@
       <c r="E142" s="18"/>
       <c r="F142" s="18"/>
       <c r="G142" s="18"/>
-      <c r="H142" s="39"/>
+      <c r="H142" s="36"/>
       <c r="I142" s="23"/>
       <c r="J142" s="23"/>
       <c r="K142" s="23"/>
       <c r="L142" s="23"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="40"/>
+      <c r="O142" s="37"/>
       <c r="P142" s="18"/>
       <c r="Q142" s="18"/>
-      <c r="R142" s="40"/>
-      <c r="S142" s="40"/>
-      <c r="T142" s="40"/>
-      <c r="U142" s="40"/>
-      <c r="V142" s="40"/>
+      <c r="R142" s="37"/>
+      <c r="S142" s="37"/>
+      <c r="T142" s="37"/>
+      <c r="U142" s="37"/>
+      <c r="V142" s="37"/>
       <c r="W142" s="23"/>
       <c r="X142" s="23"/>
     </row>
@@ -5185,21 +5021,21 @@
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
       <c r="G143" s="18"/>
-      <c r="H143" s="39"/>
+      <c r="H143" s="36"/>
       <c r="I143" s="23"/>
       <c r="J143" s="23"/>
       <c r="K143" s="23"/>
       <c r="L143" s="23"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="40"/>
+      <c r="O143" s="37"/>
       <c r="P143" s="18"/>
       <c r="Q143" s="18"/>
-      <c r="R143" s="40"/>
-      <c r="S143" s="40"/>
-      <c r="T143" s="40"/>
-      <c r="U143" s="40"/>
-      <c r="V143" s="40"/>
+      <c r="R143" s="37"/>
+      <c r="S143" s="37"/>
+      <c r="T143" s="37"/>
+      <c r="U143" s="37"/>
+      <c r="V143" s="37"/>
       <c r="W143" s="23"/>
       <c r="X143" s="23"/>
     </row>
@@ -5211,21 +5047,21 @@
       <c r="E144" s="18"/>
       <c r="F144" s="18"/>
       <c r="G144" s="18"/>
-      <c r="H144" s="39"/>
+      <c r="H144" s="36"/>
       <c r="I144" s="23"/>
       <c r="J144" s="23"/>
       <c r="K144" s="23"/>
       <c r="L144" s="23"/>
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
-      <c r="O144" s="40"/>
+      <c r="O144" s="37"/>
       <c r="P144" s="18"/>
       <c r="Q144" s="18"/>
-      <c r="R144" s="40"/>
-      <c r="S144" s="40"/>
-      <c r="T144" s="40"/>
-      <c r="U144" s="40"/>
-      <c r="V144" s="40"/>
+      <c r="R144" s="37"/>
+      <c r="S144" s="37"/>
+      <c r="T144" s="37"/>
+      <c r="U144" s="37"/>
+      <c r="V144" s="37"/>
       <c r="W144" s="23"/>
       <c r="X144" s="23"/>
     </row>
@@ -5237,21 +5073,21 @@
       <c r="E145" s="18"/>
       <c r="F145" s="18"/>
       <c r="G145" s="18"/>
-      <c r="H145" s="39"/>
+      <c r="H145" s="36"/>
       <c r="I145" s="23"/>
       <c r="J145" s="23"/>
       <c r="K145" s="23"/>
       <c r="L145" s="23"/>
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
-      <c r="O145" s="40"/>
+      <c r="O145" s="37"/>
       <c r="P145" s="18"/>
       <c r="Q145" s="18"/>
-      <c r="R145" s="40"/>
-      <c r="S145" s="40"/>
-      <c r="T145" s="40"/>
-      <c r="U145" s="40"/>
-      <c r="V145" s="40"/>
+      <c r="R145" s="37"/>
+      <c r="S145" s="37"/>
+      <c r="T145" s="37"/>
+      <c r="U145" s="37"/>
+      <c r="V145" s="37"/>
       <c r="W145" s="23"/>
       <c r="X145" s="23"/>
     </row>
@@ -5263,21 +5099,21 @@
       <c r="E146" s="18"/>
       <c r="F146" s="18"/>
       <c r="G146" s="18"/>
-      <c r="H146" s="39"/>
+      <c r="H146" s="36"/>
       <c r="I146" s="23"/>
       <c r="J146" s="23"/>
       <c r="K146" s="23"/>
       <c r="L146" s="23"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
-      <c r="O146" s="40"/>
+      <c r="O146" s="37"/>
       <c r="P146" s="18"/>
       <c r="Q146" s="18"/>
-      <c r="R146" s="40"/>
-      <c r="S146" s="40"/>
-      <c r="T146" s="40"/>
-      <c r="U146" s="40"/>
-      <c r="V146" s="40"/>
+      <c r="R146" s="37"/>
+      <c r="S146" s="37"/>
+      <c r="T146" s="37"/>
+      <c r="U146" s="37"/>
+      <c r="V146" s="37"/>
       <c r="W146" s="23"/>
       <c r="X146" s="23"/>
     </row>
@@ -5289,21 +5125,21 @@
       <c r="E147" s="18"/>
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
-      <c r="H147" s="39"/>
-      <c r="I147" s="23"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="18"/>
       <c r="J147" s="23"/>
       <c r="K147" s="23"/>
       <c r="L147" s="23"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="40"/>
+      <c r="O147" s="37"/>
       <c r="P147" s="18"/>
       <c r="Q147" s="18"/>
-      <c r="R147" s="40"/>
-      <c r="S147" s="40"/>
-      <c r="T147" s="40"/>
-      <c r="U147" s="40"/>
-      <c r="V147" s="40"/>
+      <c r="R147" s="37"/>
+      <c r="S147" s="37"/>
+      <c r="T147" s="37"/>
+      <c r="U147" s="37"/>
+      <c r="V147" s="37"/>
       <c r="W147" s="23"/>
       <c r="X147" s="23"/>
     </row>
@@ -5315,21 +5151,21 @@
       <c r="E148" s="18"/>
       <c r="F148" s="18"/>
       <c r="G148" s="18"/>
-      <c r="H148" s="39"/>
+      <c r="H148" s="36"/>
       <c r="I148" s="18"/>
       <c r="J148" s="23"/>
       <c r="K148" s="23"/>
       <c r="L148" s="23"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="40"/>
+      <c r="O148" s="37"/>
       <c r="P148" s="18"/>
       <c r="Q148" s="18"/>
-      <c r="R148" s="40"/>
-      <c r="S148" s="40"/>
-      <c r="T148" s="40"/>
-      <c r="U148" s="40"/>
-      <c r="V148" s="40"/>
+      <c r="R148" s="37"/>
+      <c r="S148" s="37"/>
+      <c r="T148" s="37"/>
+      <c r="U148" s="37"/>
+      <c r="V148" s="37"/>
       <c r="W148" s="23"/>
       <c r="X148" s="23"/>
     </row>
@@ -5341,21 +5177,21 @@
       <c r="E149" s="18"/>
       <c r="F149" s="18"/>
       <c r="G149" s="18"/>
-      <c r="H149" s="39"/>
+      <c r="H149" s="36"/>
       <c r="I149" s="18"/>
       <c r="J149" s="23"/>
       <c r="K149" s="23"/>
       <c r="L149" s="23"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="40"/>
+      <c r="O149" s="37"/>
       <c r="P149" s="18"/>
       <c r="Q149" s="18"/>
-      <c r="R149" s="40"/>
-      <c r="S149" s="40"/>
-      <c r="T149" s="40"/>
-      <c r="U149" s="40"/>
-      <c r="V149" s="40"/>
+      <c r="R149" s="37"/>
+      <c r="S149" s="37"/>
+      <c r="T149" s="37"/>
+      <c r="U149" s="37"/>
+      <c r="V149" s="37"/>
       <c r="W149" s="23"/>
       <c r="X149" s="23"/>
     </row>
@@ -5367,21 +5203,21 @@
       <c r="E150" s="18"/>
       <c r="F150" s="18"/>
       <c r="G150" s="18"/>
-      <c r="H150" s="39"/>
+      <c r="H150" s="36"/>
       <c r="I150" s="18"/>
       <c r="J150" s="23"/>
       <c r="K150" s="23"/>
       <c r="L150" s="23"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="40"/>
+      <c r="O150" s="37"/>
       <c r="P150" s="18"/>
       <c r="Q150" s="18"/>
-      <c r="R150" s="40"/>
-      <c r="S150" s="40"/>
-      <c r="T150" s="40"/>
-      <c r="U150" s="40"/>
-      <c r="V150" s="40"/>
+      <c r="R150" s="37"/>
+      <c r="S150" s="37"/>
+      <c r="T150" s="37"/>
+      <c r="U150" s="37"/>
+      <c r="V150" s="37"/>
       <c r="W150" s="23"/>
       <c r="X150" s="23"/>
     </row>
@@ -5393,21 +5229,21 @@
       <c r="E151" s="18"/>
       <c r="F151" s="18"/>
       <c r="G151" s="18"/>
-      <c r="H151" s="39"/>
+      <c r="H151" s="36"/>
       <c r="I151" s="18"/>
       <c r="J151" s="23"/>
       <c r="K151" s="23"/>
       <c r="L151" s="23"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="40"/>
+      <c r="O151" s="37"/>
       <c r="P151" s="18"/>
       <c r="Q151" s="18"/>
-      <c r="R151" s="40"/>
-      <c r="S151" s="40"/>
-      <c r="T151" s="40"/>
-      <c r="U151" s="40"/>
-      <c r="V151" s="40"/>
+      <c r="R151" s="37"/>
+      <c r="S151" s="37"/>
+      <c r="T151" s="37"/>
+      <c r="U151" s="37"/>
+      <c r="V151" s="37"/>
       <c r="W151" s="23"/>
       <c r="X151" s="23"/>
     </row>
@@ -5419,21 +5255,21 @@
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
       <c r="G152" s="18"/>
-      <c r="H152" s="39"/>
+      <c r="H152" s="36"/>
       <c r="I152" s="18"/>
       <c r="J152" s="23"/>
       <c r="K152" s="23"/>
       <c r="L152" s="23"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="40"/>
+      <c r="O152" s="37"/>
       <c r="P152" s="18"/>
       <c r="Q152" s="18"/>
-      <c r="R152" s="40"/>
-      <c r="S152" s="40"/>
-      <c r="T152" s="40"/>
-      <c r="U152" s="40"/>
-      <c r="V152" s="40"/>
+      <c r="R152" s="37"/>
+      <c r="S152" s="37"/>
+      <c r="T152" s="37"/>
+      <c r="U152" s="37"/>
+      <c r="V152" s="37"/>
       <c r="W152" s="23"/>
       <c r="X152" s="23"/>
     </row>
@@ -5445,21 +5281,21 @@
       <c r="E153" s="18"/>
       <c r="F153" s="18"/>
       <c r="G153" s="18"/>
-      <c r="H153" s="39"/>
+      <c r="H153" s="36"/>
       <c r="I153" s="18"/>
       <c r="J153" s="23"/>
       <c r="K153" s="23"/>
       <c r="L153" s="23"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="40"/>
+      <c r="O153" s="37"/>
       <c r="P153" s="18"/>
       <c r="Q153" s="18"/>
-      <c r="R153" s="40"/>
-      <c r="S153" s="40"/>
-      <c r="T153" s="40"/>
-      <c r="U153" s="40"/>
-      <c r="V153" s="40"/>
+      <c r="R153" s="37"/>
+      <c r="S153" s="37"/>
+      <c r="T153" s="37"/>
+      <c r="U153" s="37"/>
+      <c r="V153" s="37"/>
       <c r="W153" s="23"/>
       <c r="X153" s="23"/>
     </row>
@@ -5471,25 +5307,25 @@
       <c r="E154" s="18"/>
       <c r="F154" s="18"/>
       <c r="G154" s="18"/>
-      <c r="H154" s="39"/>
+      <c r="H154" s="36"/>
       <c r="I154" s="18"/>
       <c r="J154" s="23"/>
       <c r="K154" s="23"/>
       <c r="L154" s="23"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="40"/>
+      <c r="O154" s="37"/>
       <c r="P154" s="18"/>
       <c r="Q154" s="18"/>
-      <c r="R154" s="40"/>
-      <c r="S154" s="40"/>
-      <c r="T154" s="40"/>
-      <c r="U154" s="40"/>
-      <c r="V154" s="40"/>
+      <c r="R154" s="37"/>
+      <c r="S154" s="37"/>
+      <c r="T154" s="37"/>
+      <c r="U154" s="37"/>
+      <c r="V154" s="37"/>
       <c r="W154" s="23"/>
       <c r="X154" s="23"/>
     </row>
-    <row r="155" spans="1:24" ht="15.6">
+    <row r="155" spans="1:24">
       <c r="A155" s="23"/>
       <c r="B155" s="24"/>
       <c r="C155" s="18"/>
@@ -5497,21 +5333,21 @@
       <c r="E155" s="18"/>
       <c r="F155" s="18"/>
       <c r="G155" s="18"/>
-      <c r="H155" s="39"/>
+      <c r="H155" s="18"/>
       <c r="I155" s="18"/>
       <c r="J155" s="23"/>
       <c r="K155" s="23"/>
       <c r="L155" s="23"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="40"/>
+      <c r="O155" s="25"/>
       <c r="P155" s="18"/>
       <c r="Q155" s="18"/>
-      <c r="R155" s="40"/>
-      <c r="S155" s="40"/>
-      <c r="T155" s="40"/>
-      <c r="U155" s="40"/>
-      <c r="V155" s="40"/>
+      <c r="R155" s="26"/>
+      <c r="S155" s="23"/>
+      <c r="T155" s="23"/>
+      <c r="U155" s="23"/>
+      <c r="V155" s="23"/>
       <c r="W155" s="23"/>
       <c r="X155" s="23"/>
     </row>
@@ -27459,32 +27295,6 @@
       <c r="W999" s="23"/>
       <c r="X999" s="23"/>
     </row>
-    <row r="1000" spans="1:24">
-      <c r="A1000" s="23"/>
-      <c r="B1000" s="24"/>
-      <c r="C1000" s="18"/>
-      <c r="D1000" s="18"/>
-      <c r="E1000" s="18"/>
-      <c r="F1000" s="18"/>
-      <c r="G1000" s="18"/>
-      <c r="H1000" s="18"/>
-      <c r="I1000" s="18"/>
-      <c r="J1000" s="23"/>
-      <c r="K1000" s="23"/>
-      <c r="L1000" s="23"/>
-      <c r="M1000" s="18"/>
-      <c r="N1000" s="18"/>
-      <c r="O1000" s="25"/>
-      <c r="P1000" s="18"/>
-      <c r="Q1000" s="18"/>
-      <c r="R1000" s="26"/>
-      <c r="S1000" s="23"/>
-      <c r="T1000" s="23"/>
-      <c r="U1000" s="23"/>
-      <c r="V1000" s="23"/>
-      <c r="W1000" s="23"/>
-      <c r="X1000" s="23"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A7:X7"/>
@@ -27492,28 +27302,28 @@
     <mergeCell ref="P9:X9"/>
   </mergeCells>
   <dataValidations count="10">
-    <dataValidation type="whole" operator="notBetween" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No colocar (V) solo los numeros" error="V" promptTitle="Cédula" prompt="coloque el número de cedula de identidad del estudiante, en caso que el estudiante no posee cedula coloque la cedula escolar o deje el espacio en blanco" sqref="E12:E1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="notBetween" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No colocar (V) solo los numeros" error="V" promptTitle="Cédula" prompt="coloque el número de cedula de identidad del estudiante, en caso que el estudiante no posee cedula coloque la cedula escolar o deje el espacio en blanco" sqref="E11:E999" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombres" prompt="Escriba los nombres del estudiante" sqref="C12:C1000" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Apellidos" prompt="Escriba los apellidos del estudiante" sqref="D12:D1000" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation type="whole" operator="notBetween" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No colocar (V) solo los números" error="V" promptTitle="Cédula" prompt="Coloque el número de cedula de identidad." sqref="R12:R1000" xr:uid="{00000000-0002-0000-0000-000010000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombres" prompt="Escriba los nombres del estudiante" sqref="C11:C999" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Apellidos" prompt="Escriba los apellidos del estudiante" sqref="D11:D999" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="whole" operator="notBetween" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No colocar (V) solo los números" error="V" promptTitle="Cédula" prompt="Coloque el número de cedula de identidad." sqref="R11:R999" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre del representante" prompt="Escriba los nombres del estudiante" sqref="P12:P1000" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Apellidos del representante" prompt="Escriba los apellidos del estudiante" sqref="Q12:Q1000" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M1000" xr:uid="{00000000-0002-0000-0000-000013000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre del representante" prompt="Escriba los nombres del estudiante" sqref="P11:P999" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Apellidos del representante" prompt="Escriba los apellidos del estudiante" sqref="Q11:Q999" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11:M999" xr:uid="{00000000-0002-0000-0000-000013000000}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Edad" error="Coloque la edad del estudiante en número " promptTitle="Edad" prompt="Coloque la edad del estudiante en número " sqref="F12:F1000" xr:uid="{00000000-0002-0000-0000-000014000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Edad" error="Coloque la edad del estudiante en número " promptTitle="Edad" prompt="Coloque la edad del estudiante en número " sqref="F11:F999" xr:uid="{00000000-0002-0000-0000-000014000000}">
       <formula1>1</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre de la escuela" prompt="Colocar el nombre de la institución donde pertenece el estudiante" sqref="B12:B1000 E12:E1000" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="talla de camisa" error="Colocar talla de camisa en numero" promptTitle="talla de camisa" prompt="Colocar talla de camisa en numero" sqref="I12:I1000 R12:R1000" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre de la escuela" prompt="Colocar el nombre de la institución donde pertenece el estudiante" sqref="B11:B999 E11:E999" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="talla de camisa" error="Colocar talla de camisa en numero" promptTitle="talla de camisa" prompt="Colocar talla de camisa en numero" sqref="I11:I999 R11:R999" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27525,25 +27335,25 @@
           <x14:formula1>
             <xm:f>Hoja2!$F$3:$F$15</xm:f>
           </x14:formula1>
-          <xm:sqref>H12:H1000</xm:sqref>
+          <xm:sqref>H11:H999</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sexo" prompt="Seleccione Masculino o Femenino segun corresponda" xr:uid="{00000000-0002-0000-0000-000019000000}">
           <x14:formula1>
             <xm:f>Hoja2!$A$3:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G12:G1000</xm:sqref>
+          <xm:sqref>G11:G999</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000016000000}">
           <x14:formula1>
             <xm:f>Hoja2!$A$3:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F1001:F1048576</xm:sqref>
+          <xm:sqref>F1000:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000017000000}">
           <x14:formula1>
             <xm:f>Hoja2!$F$3:$F$15</xm:f>
           </x14:formula1>
-          <xm:sqref>G1001:G1048576</xm:sqref>
+          <xm:sqref>G1000:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27693,7 +27503,7 @@
   <dimension ref="A2:K348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -27718,7 +27528,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -27732,10 +27542,10 @@
     </row>
     <row r="4" spans="1:11" ht="17.399999999999999">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -27746,7 +27556,7 @@
     </row>
     <row r="5" spans="1:11" ht="17.399999999999999">
       <c r="F5" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
@@ -27757,7 +27567,7 @@
     </row>
     <row r="6" spans="1:11" ht="17.399999999999999">
       <c r="F6" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -27768,7 +27578,7 @@
     </row>
     <row r="7" spans="1:11" ht="17.399999999999999">
       <c r="F7" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -27779,7 +27589,7 @@
     </row>
     <row r="8" spans="1:11" ht="17.399999999999999">
       <c r="F8" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="I8" s="1">
         <v>6</v>
@@ -27790,7 +27600,7 @@
     </row>
     <row r="9" spans="1:11" ht="17.399999999999999">
       <c r="F9" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="I9" s="1">
         <v>7</v>
@@ -27801,7 +27611,7 @@
     </row>
     <row r="10" spans="1:11" ht="17.399999999999999">
       <c r="F10" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
@@ -27812,7 +27622,7 @@
     </row>
     <row r="11" spans="1:11" ht="17.399999999999999">
       <c r="F11" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1">
         <v>9</v>
@@ -27823,7 +27633,7 @@
     </row>
     <row r="12" spans="1:11" ht="17.399999999999999">
       <c r="F12" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
@@ -27834,7 +27644,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6">
       <c r="F13" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I13" s="1">
         <v>11</v>
@@ -27845,7 +27655,7 @@
     </row>
     <row r="14" spans="1:11" ht="17.399999999999999">
       <c r="F14" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="I14" s="1">
         <v>12</v>
@@ -27856,7 +27666,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6">
       <c r="F15" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="I15" s="1">
         <v>13</v>
@@ -27867,7 +27677,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6">
       <c r="F16" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I16" s="1">
         <v>14</v>
@@ -27878,7 +27688,7 @@
     </row>
     <row r="17" spans="6:11" ht="15.6">
       <c r="F17" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="I17" s="1">
         <v>15</v>
@@ -27889,7 +27699,7 @@
     </row>
     <row r="18" spans="6:11" ht="15.6">
       <c r="F18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I18" s="1">
         <v>16</v>
